--- a/Data/tweets.xlsx
+++ b/Data/tweets.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="762" uniqueCount="230">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="888" uniqueCount="171">
   <si>
     <t>Tweet_id</t>
   </si>
@@ -52,12 +52,12 @@
     <t>Year</t>
   </si>
   <si>
+    <t>vitalik.eth</t>
+  </si>
+  <si>
     <t>CZ 🔶 Binance</t>
   </si>
   <si>
-    <t>Brad Garlinghouse</t>
-  </si>
-  <si>
     <t>Charles Hoskinson</t>
   </si>
   <si>
@@ -70,24 +70,24 @@
     <t>Richard Heart</t>
   </si>
   <si>
-    <t>H.E. Justin Sun🌞🇬🇩🇩🇲🔥</t>
+    <t>H.E. Justin Sun🌞🇬🇩🇩🇲🔥₮</t>
   </si>
   <si>
     <t>Solana</t>
   </si>
   <si>
-    <t>Uniswap Labs 🦄</t>
-  </si>
-  <si>
-    <t>Emin Gün Sirer🔺</t>
+    <t>Charlie Lee Ⓜ️🕸️</t>
+  </si>
+  <si>
+    <t>Ethan Buchman (🐝,🦇)</t>
+  </si>
+  <si>
+    <t>VitalikButerin</t>
   </si>
   <si>
     <t>cz_binance</t>
   </si>
   <si>
-    <t>bgarlinghouse</t>
-  </si>
-  <si>
     <t>IOHK_Charles</t>
   </si>
   <si>
@@ -106,18 +106,18 @@
     <t>solana</t>
   </si>
   <si>
-    <t>Uniswap</t>
-  </si>
-  <si>
-    <t>el33th4xor</t>
+    <t>SatoshiLite</t>
+  </si>
+  <si>
+    <t>buchmanster</t>
+  </si>
+  <si>
+    <t>ethereum</t>
   </si>
   <si>
     <t>binancecoin</t>
   </si>
   <si>
-    <t>ripple</t>
-  </si>
-  <si>
     <t>cardano</t>
   </si>
   <si>
@@ -139,597 +139,415 @@
     <t>tron</t>
   </si>
   <si>
-    <t>uniswap</t>
-  </si>
-  <si>
-    <t>avalanche-2</t>
-  </si>
-  <si>
-    <t>@SpeedevsO Lol</t>
-  </si>
-  <si>
-    <t>Need a Xmas pfp.</t>
-  </si>
-  <si>
-    <t>RT @binance: #BinanceBuild update:
-#Binance Card is now available in 9 new EEA countries! Secure yours and earn up to 8% BNB cash back eve…</t>
-  </si>
-  <si>
-    <t>@binance Ignore FUD, Build.</t>
-  </si>
-  <si>
-    <t>@CrypttoAhmet @BinanceAngels @JesuslVivas @binance @spideycyp_155 @yuki_binance @heyibinance @Berit1p @TineoYsidro7… https://t.co/GJopF7AQeJ</t>
-  </si>
-  <si>
-    <t>RT @Binance_Turkish: #BinanceÜniversiteler turumuzun onuncusu @BilkentUniv ile tamamladık!🎊 
-@BinanceAcademy ile birlikte Web3 ve kripto e…</t>
-  </si>
-  <si>
-    <t>Learn to hold your own keys, by doing ALL of the following.
-Recommend starting with a small amount, until you mast… https://t.co/wX7PPwJmuK</t>
-  </si>
-  <si>
-    <t>@fabled_sleuth @SimonDixonTwitt @VoyagerUCC @Kirkland_Ellis FUD.</t>
-  </si>
-  <si>
-    <t>@shingolavine @SimonDixonTwitt answer in the original thread.</t>
-  </si>
-  <si>
-    <t>@SimonDixonTwitt @VoyagerUCC @Kirkland_Ellis You mean, other than FTX bidding $1.4 billion for it (most likely beca… https://t.co/vmc3Pu64nO</t>
-  </si>
-  <si>
-    <t>@web345678910 And how to get that to your loved one when your are "no longer around".</t>
-  </si>
-  <si>
-    <t>@BitninjaX It's call a brain wallet. 
-It doesn't handle inheritance, making sure your loved ones can get it when y… https://t.co/cuXRxdO9ne</t>
-  </si>
-  <si>
-    <t>I am a proponent of free choice. Feel free to hold your crypto anyway you wish. But learn the risks of each method.… https://t.co/PcsJlmnLF0</t>
-  </si>
-  <si>
-    <t>@calebBilli10 @BitfuryGeorge There is Uniswap or Pancake Swap.</t>
-  </si>
-  <si>
-    <t>@ercwl @inversebrah 😂</t>
-  </si>
-  <si>
-    <t>RT @cz_binance: @BitfuryGeorge I tweeted a few times in the past. 
-Binance is not a profit maximizing organization. As such, we are also n…</t>
-  </si>
-  <si>
-    <t>This 100%! 
-It’s ridiculous and frankly shameful that Chair Gensler was touting the SEC’s enforcement actions as t… https://t.co/LE1ICNhFbU</t>
-  </si>
-  <si>
-    <t>Ok @larianstudios I'm going out on a limb and saying Gale = Karsus. I'll take your silence as confirmation :)</t>
-  </si>
-  <si>
-    <t>RT @StakeWithPride: Hearing @IOHK_Charles describe the Elon+Twitter situation, how it could have been better handled, including with web3,…</t>
-  </si>
-  <si>
-    <t>Surprise AMA 12-19-2022 https://t.co/w0K9XvJBs7</t>
-  </si>
-  <si>
-    <t>It's that time again kids: https://t.co/emZA2jfBPT</t>
-  </si>
-  <si>
-    <t>As (outgoing) Chair of House Intelligence, did you approve hidden state censorship in direct violation of the Const… https://t.co/R1BbHSmpOp</t>
-  </si>
-  <si>
-    <t>@SawyerMerritt @davidfaber 🤣🤣</t>
-  </si>
-  <si>
-    <t>@Rainmaker1973 If you know the solution is a whole number, doing mental cube approximations &amp;amp; guessing works great</t>
-  </si>
-  <si>
-    <t>Hear, hear!! https://t.co/LbvnmOGAVy</t>
-  </si>
-  <si>
-    <t>@BillyM2k Your tax dollars at work …</t>
-  </si>
-  <si>
-    <t>RT @Tesla: Every Tesla has an electronic powertrain that provides instant torque control—enabling more control &amp;amp; stability in winter condit…</t>
-  </si>
-  <si>
-    <t>@andst7 @Corriere Grazie</t>
-  </si>
-  <si>
-    <t>@davenewworld_2 Absolutely</t>
-  </si>
-  <si>
-    <t>Government paid Twitter millions of dollars to censor info from the public https://t.co/eSEwcZlGjt</t>
-  </si>
-  <si>
-    <t>Other social media companies too, not just Twitter https://t.co/vH2EnMr9Iw</t>
-  </si>
-  <si>
-    <t>RT @RubinReport: Holy sheep shit. The government was actually paying Twitter to censor people.
-@elonmusk, maybe there is a way to make Twi…</t>
-  </si>
-  <si>
-    <t>@RealSaavedra @LegendaryEnergy @EndWokeness How do you calculate 90%?</t>
-  </si>
-  <si>
-    <t>@kerrikgray @LegendaryEnergy @EndWokeness True</t>
-  </si>
-  <si>
-    <t>@farzyness The United States has definitely been harmed by having her as a senator lol</t>
-  </si>
-  <si>
-    <t>@LegendaryEnergy @EndWokeness How did it come to be this way?</t>
-  </si>
-  <si>
-    <t>@ShellenbergerMD Extremely problematic</t>
-  </si>
-  <si>
-    <t>@Jason So many publications just sound like WokeGPT these days</t>
-  </si>
-  <si>
-    <t>@EndWokeness Why is this never in the news?</t>
-  </si>
-  <si>
-    <t>@WallStreetSilv Interesting</t>
-  </si>
-  <si>
-    <t>@DrJBhattacharya @Stanford Stanford disapproves of saying you’re proud to be an American? Whoa.</t>
-  </si>
-  <si>
-    <t>@WallStreetSilv Wow, worse than ‘99 …</t>
-  </si>
-  <si>
-    <t>@lhamtil Wow</t>
-  </si>
-  <si>
-    <t>RT @TwitterBusiness: Today, we’re rolling out Twitter Blue for Business, a new program that lets businesses distinguish their brands and ke…</t>
-  </si>
-  <si>
-    <t>RT @Tesla: Be your own utility with Solar &amp;amp; Powerwall →
-https://t.co/e3O2PP5HOd</t>
-  </si>
-  <si>
-    <t>RT @Tesla: We’ve completed 500k+ Solar Panel and Solar Roof installations—that’s equal to ~4 GW of clean energy ☀️ https://t.co/Tjz6PzYuah</t>
-  </si>
-  <si>
-    <t>Stats on Twitter World Cup
-https://t.co/y91SB99eKZ</t>
-  </si>
-  <si>
-    <t>@TheBabylonBee 🤣🤣</t>
-  </si>
-  <si>
-    <t>@Unfilteredboss1 @KimDotcom Good point. Twitter will make that change.</t>
-  </si>
-  <si>
-    <t>@KimDotcom Interesting</t>
-  </si>
-  <si>
-    <t>RT @SpaceX: Starlink now has more than 1,000,000 active subscribers – thank you to all customers and members of the Starlink team who contr…</t>
-  </si>
-  <si>
-    <t>RT @ShellenbergerMD: 1. TWITTER FILES: PART 7
-The FBI &amp;amp; the Hunter Biden Laptop
-How the FBI &amp;amp; intelligence community discredited factual…</t>
-  </si>
-  <si>
-    <t>RT @NarbTrading: Total @opensea users on @0xPolygon passed 1.5M
-💜🌊 https://t.co/pj1eqOPEf0</t>
-  </si>
-  <si>
-    <t>RT @IndiGG_DAO: https://t.co/OoyGZocHnZ</t>
-  </si>
-  <si>
-    <t>RT @PolygonStudios: Imagine a chat platform 💬 that combines smooth wallet experience with advanced community management tools 🧰
-@0xPolygon…</t>
-  </si>
-  <si>
-    <t>RT @Everstake_Masha: No kidding now. 
-@realDonaldTrump's digital trading cards set the @0xPolygon #NFT market on fire.
-Let's take a look a…</t>
-  </si>
-  <si>
-    <t>RT @GiancarloChaux: Reddit launched another free NFT collection 5 days ago called Recap 2022
-it already has 1.3 million owners
-probably n…</t>
-  </si>
-  <si>
-    <t>RT @NarbTrading: Total stock trading volume on @GainsNetwork_io passed $100M.
-#onPolygon https://t.co/H7FdO6qhAJ</t>
-  </si>
-  <si>
-    <t>RT @BanklessHQ: Reddit moment</t>
-  </si>
-  <si>
-    <t>RT @jdkanani: 🤯</t>
-  </si>
-  <si>
-    <t>RT @ParallelTCG: 𝗣𝗮𝗰𝗸 𝗗𝗿𝗼𝗽 𝟲
-January 14th, 2023 https://t.co/P9eRiWvAHq</t>
-  </si>
-  <si>
-    <t>RT @TheBlock__: Polygon’s next web3 play is an NFT debit card
-https://t.co/0ouBMPEY4L</t>
-  </si>
-  <si>
-    <t>#MassAdoption @Reddit 
-Powered by @0xPolygon https://t.co/UnqA0QzrC1</t>
-  </si>
-  <si>
-    <t>RT @DelendumV: Tomorrow (Dec 20) at 9:30AM PT, @jbaylina Jordi and @dlubarov Daniel will lead a seminar on optimizations of zkEVM @0xPolygo…</t>
-  </si>
-  <si>
-    <t>RT @NarbTrading: Scalability is the lock to mass adoption🔒 
-Polygon is the key🔑</t>
-  </si>
-  <si>
-    <t>RT @0xsachi: Why I am bullish Japan 🇯🇵, 2023: 
-1) regulation on crypto exchanges ensures retail funds are safe (FTX left Japan unaffected)…</t>
-  </si>
-  <si>
-    <t>RT @0xSydney: Tired of hearing about Twitter drama?
-I spent some time digging through @LensProtocol and here's what decentralized social m…</t>
-  </si>
-  <si>
-    <t>RT @Mycaleum: On this #web3 journey, it is important to stop and reflect on milestone moments. 🙏
-@aavegotchi and I aligned for my 10k @0xP…</t>
-  </si>
-  <si>
-    <t>@gainzy222 @CryptoFinally But thats why this bridge has seen 80bn go to and fro mainchain, never loosing any user m… https://t.co/1HkWwItamy</t>
-  </si>
-  <si>
-    <t>@gainzy222 @CryptoFinally Ahh, sorry to see this delay. Generally it takes &amp;lt; 10mins. I guess Thats the pain of dece… https://t.co/Vj7yKdh1dW</t>
-  </si>
-  <si>
-    <t>RT @DegenerateNews: BREAKING: @0xPolygon PARTNERS WITH @hi_com_official TO ALLOW DEGENS TO MINT AN NFT TO CUSTOMIZE A DEBIT @Mastercard htt…</t>
-  </si>
-  <si>
-    <t>@Markotweeto @Lydia_fishing Haha</t>
-  </si>
-  <si>
-    <t>@kenmcelroy Garbage collector.</t>
-  </si>
-  <si>
-    <t>@DanielH40972332 I do not like those.</t>
-  </si>
-  <si>
-    <t>@Poncik18 Scam</t>
-  </si>
-  <si>
-    <t>RT @TheRealTBirdHex: #RichardHeart has explained so many times for so long how the outrage marketing works, but people still don't listen…</t>
-  </si>
-  <si>
-    <t>A bidet is a great Xmas gift you can install yourself in 30 minutes. https://t.co/mkTYZBQhfO</t>
-  </si>
-  <si>
-    <t>@Flex4Hex Nice</t>
-  </si>
-  <si>
-    <t>I think it's funny in the bear market when people think specific things are driving down the price of their coin, w… https://t.co/g1NLUhG3jy</t>
-  </si>
-  <si>
-    <t>@EndWokeness White people fuck lol</t>
-  </si>
-  <si>
-    <t>@ShannenJPEG Epic rug pull!</t>
-  </si>
-  <si>
-    <t>@Lydia_fishing John</t>
-  </si>
-  <si>
-    <t>@petersonacademy License plate https://t.co/RfzQu0jYKP</t>
-  </si>
-  <si>
-    <t>TCNH offers millions of users on #TRON with another stablecoin option. I’ll be in conversation with @Bloomberg tomo… https://t.co/3sQFRHZXEs</t>
-  </si>
-  <si>
-    <t>👏Well done, @StakingRewards! This is an excellent report, sponsored by #TRON, that can help all users and staking p… https://t.co/vRLBM7adqW</t>
-  </si>
-  <si>
-    <t>For DEVcember 19th, it's time to build. @seahorse_lang can help developers write Anchor-compatible programs with Py… https://t.co/Waddbx3JLZ</t>
-  </si>
-  <si>
-    <t>RT @fusewallet: 1/ Introducing: Fuse.
-A wallet that allows you to interact with 
-@solana dapps and protocols from the security of your mul…</t>
-  </si>
-  <si>
-    <t>3/ Now when you connect your wallet to the Uniswap Web App, you’ll be able to buy crypto using fiat. This is an imp… https://t.co/mPjKf39Kxw</t>
-  </si>
-  <si>
-    <t>2/ Self-custody is still the safest way to participate in crypto. 
-We wanted to ensure that all of our users, and… https://t.co/iiBhthAVsd</t>
-  </si>
-  <si>
-    <t>1/ Go direct to DeFi 🚄
-Starting today, you can now purchase crypto on the Uniswap Web App using a credit/debit car… https://t.co/TN0FNCa02u</t>
-  </si>
-  <si>
-    <t>@cmsholdings "One of those things is not like the others."</t>
-  </si>
-  <si>
-    <t>RT @avalancheavax: Celine "Gio" Manetta, a French painter and illustrator who designed cars for Mercedes and painted for the French Air For…</t>
-  </si>
-  <si>
-    <t>2022-12-20 19:44:39</t>
-  </si>
-  <si>
-    <t>2022-12-20 19:38:50</t>
-  </si>
-  <si>
-    <t>2022-12-20 19:33:29</t>
-  </si>
-  <si>
-    <t>2022-12-20 19:33:26</t>
-  </si>
-  <si>
-    <t>2022-12-20 19:23:07</t>
-  </si>
-  <si>
-    <t>2022-12-20 19:08:24</t>
-  </si>
-  <si>
-    <t>2022-12-20 08:54:17</t>
-  </si>
-  <si>
-    <t>2022-12-20 08:49:50</t>
-  </si>
-  <si>
-    <t>2022-12-20 08:46:39</t>
-  </si>
-  <si>
-    <t>2022-12-20 08:46:03</t>
-  </si>
-  <si>
-    <t>2022-12-20 08:39:30</t>
-  </si>
-  <si>
-    <t>2022-12-20 08:37:58</t>
-  </si>
-  <si>
-    <t>2022-12-20 08:22:02</t>
-  </si>
-  <si>
-    <t>2022-12-20 08:11:13</t>
-  </si>
-  <si>
-    <t>2022-12-20 08:02:57</t>
-  </si>
-  <si>
-    <t>2022-12-20 07:53:30</t>
-  </si>
-  <si>
-    <t>2022-12-20 18:59:20</t>
-  </si>
-  <si>
-    <t>2022-12-20 10:06:18</t>
-  </si>
-  <si>
-    <t>2022-12-20 04:53:10</t>
-  </si>
-  <si>
-    <t>2022-12-20 02:08:07</t>
-  </si>
-  <si>
-    <t>2022-12-20 02:05:32</t>
-  </si>
-  <si>
-    <t>2022-12-20 20:32:35</t>
-  </si>
-  <si>
-    <t>2022-12-20 20:16:13</t>
-  </si>
-  <si>
-    <t>2022-12-20 20:15:24</t>
-  </si>
-  <si>
-    <t>2022-12-20 20:04:48</t>
-  </si>
-  <si>
-    <t>2022-12-20 20:03:09</t>
-  </si>
-  <si>
-    <t>2022-12-20 18:50:22</t>
-  </si>
-  <si>
-    <t>2022-12-20 18:44:55</t>
-  </si>
-  <si>
-    <t>2022-12-20 18:22:47</t>
-  </si>
-  <si>
-    <t>2022-12-20 18:13:45</t>
-  </si>
-  <si>
-    <t>2022-12-20 18:10:54</t>
-  </si>
-  <si>
-    <t>2022-12-20 18:09:30</t>
-  </si>
-  <si>
-    <t>2022-12-20 09:35:28</t>
-  </si>
-  <si>
-    <t>2022-12-20 09:15:15</t>
-  </si>
-  <si>
-    <t>2022-12-20 08:57:21</t>
-  </si>
-  <si>
-    <t>2022-12-20 08:51:48</t>
-  </si>
-  <si>
-    <t>2022-12-20 08:49:48</t>
-  </si>
-  <si>
-    <t>2022-12-20 07:06:52</t>
-  </si>
-  <si>
-    <t>2022-12-20 06:58:32</t>
-  </si>
-  <si>
-    <t>2022-12-20 04:43:08</t>
-  </si>
-  <si>
-    <t>2022-12-20 04:30:49</t>
-  </si>
-  <si>
-    <t>2022-12-20 04:16:00</t>
-  </si>
-  <si>
-    <t>2022-12-20 04:07:02</t>
-  </si>
-  <si>
-    <t>2022-12-20 03:59:25</t>
-  </si>
-  <si>
-    <t>2022-12-20 03:37:53</t>
-  </si>
-  <si>
-    <t>2022-12-20 03:37:50</t>
-  </si>
-  <si>
-    <t>2022-12-20 03:36:52</t>
-  </si>
-  <si>
-    <t>2022-12-20 03:29:49</t>
-  </si>
-  <si>
-    <t>2022-12-20 02:41:35</t>
-  </si>
-  <si>
-    <t>2022-12-20 02:27:30</t>
-  </si>
-  <si>
-    <t>2022-12-19 23:47:31</t>
-  </si>
-  <si>
-    <t>2022-12-19 23:40:56</t>
-  </si>
-  <si>
-    <t>2022-12-20 20:47:25</t>
-  </si>
-  <si>
-    <t>2022-12-20 16:46:39</t>
-  </si>
-  <si>
-    <t>2022-12-20 14:59:10</t>
-  </si>
-  <si>
-    <t>2022-12-20 14:49:52</t>
-  </si>
-  <si>
-    <t>2022-12-20 11:41:05</t>
-  </si>
-  <si>
-    <t>2022-12-20 11:28:18</t>
-  </si>
-  <si>
-    <t>2022-12-20 11:09:56</t>
-  </si>
-  <si>
-    <t>2022-12-20 11:09:52</t>
-  </si>
-  <si>
-    <t>2022-12-20 11:07:37</t>
-  </si>
-  <si>
-    <t>2022-12-20 11:03:13</t>
-  </si>
-  <si>
-    <t>2022-12-20 10:49:51</t>
-  </si>
-  <si>
-    <t>2022-12-20 10:47:24</t>
-  </si>
-  <si>
-    <t>2022-12-20 10:41:12</t>
-  </si>
-  <si>
-    <t>2022-12-19 23:44:26</t>
-  </si>
-  <si>
-    <t>2022-12-19 23:44:18</t>
-  </si>
-  <si>
-    <t>2022-12-19 23:36:14</t>
-  </si>
-  <si>
-    <t>2022-12-19 23:32:58</t>
-  </si>
-  <si>
-    <t>2022-12-19 23:32:01</t>
-  </si>
-  <si>
-    <t>2022-12-19 23:16:59</t>
-  </si>
-  <si>
-    <t>2022-12-20 14:57:32</t>
-  </si>
-  <si>
-    <t>2022-12-20 14:49:00</t>
-  </si>
-  <si>
-    <t>2022-12-20 14:47:56</t>
-  </si>
-  <si>
-    <t>2022-12-20 14:35:36</t>
-  </si>
-  <si>
-    <t>2022-12-20 14:30:32</t>
-  </si>
-  <si>
-    <t>2022-12-20 14:26:52</t>
-  </si>
-  <si>
-    <t>2022-12-20 14:25:43</t>
-  </si>
-  <si>
-    <t>2022-12-20 14:24:57</t>
-  </si>
-  <si>
-    <t>2022-12-20 14:20:46</t>
-  </si>
-  <si>
-    <t>2022-12-20 14:10:42</t>
-  </si>
-  <si>
-    <t>2022-12-20 13:48:15</t>
-  </si>
-  <si>
-    <t>2022-12-20 07:19:53</t>
-  </si>
-  <si>
-    <t>2022-12-20 12:29:29</t>
-  </si>
-  <si>
-    <t>2022-12-20 04:03:44</t>
-  </si>
-  <si>
-    <t>2022-12-20 02:47:46</t>
-  </si>
-  <si>
-    <t>2022-12-20 02:37:00</t>
-  </si>
-  <si>
-    <t>2022-12-20 20:18:55</t>
-  </si>
-  <si>
-    <t>2022-12-20 20:18:54</t>
-  </si>
-  <si>
-    <t>2022-12-20 11:13:17</t>
-  </si>
-  <si>
-    <t>2022-12-20 03:17:38</t>
+    <t>litecoin</t>
+  </si>
+  <si>
+    <t>cosmos</t>
+  </si>
+  <si>
+    <t>@ChenWainuo @zengjiajun_eth @BlockGeekDima 我也祝你新年快乐!</t>
+  </si>
+  <si>
+    <t>RT @VitalikButerin: @IAPonomarenko Happy new year, and lots of love to you too.
+Wish you guys a peace with justice in 2023.
+Слава Україні…</t>
+  </si>
+  <si>
+    <t>@IAPonomarenko Happy new year, and lots of love to you too.
+Wish you guys a peace with justice in 2023.
+Слава Україні
+🇺🇦🇺🇦💪</t>
+  </si>
+  <si>
+    <t>@lexfridman @GretaThunberg @Cobratate I would disagree with interviewing Andrew. I worry it would contribute more f… https://t.co/WUIt74TrK2</t>
+  </si>
+  <si>
+    <t>@balajis Reaching the "basic rollup scaling" milestone in my roadmap diagram.
+That means:
+* EIP-4844 rolled out
+*… https://t.co/2DJ9bjCDpN</t>
+  </si>
+  <si>
+    <t>@formedinwetsand @cafreiman That would imply that there's no meaningful distinction between SF and LA, or Twitter a… https://t.co/D0hUlljsqF</t>
+  </si>
+  <si>
+    <t>@cheddaverse what FUD? https://t.co/sEFYG5VdgF</t>
+  </si>
+  <si>
+    <t>@crypto_stevie 🙏</t>
+  </si>
+  <si>
+    <t>@wsy112488 @alexanhtuan no, don't have fiat.</t>
+  </si>
+  <si>
+    <t>@RebelAbdoel 1:22 AM of 2023, back to work.</t>
+  </si>
+  <si>
+    <t>@alexanhtuan Someone sure will, money get's cheaper at exponential rates.</t>
+  </si>
+  <si>
+    <t>@ARafayGadit It unites us. 💪</t>
+  </si>
+  <si>
+    <t>@MrWhaler18 @Andr3iRey 🙏</t>
+  </si>
+  <si>
+    <t>@oldbeans1337 @Andr3iRey epic! 👍</t>
+  </si>
+  <si>
+    <t>@artists_voyage used it on my instagram. Hope you don't mind. https://t.co/qwtKyuDxt8</t>
+  </si>
+  <si>
+    <t>@Andr3iRey Trading from the sea?</t>
+  </si>
+  <si>
+    <t>@artists_voyage Nice image!</t>
+  </si>
+  <si>
+    <t>In 2022, #Binance spot matching engine achieved 100% uptime and availability, with 6 live upgrades, zero P0 or P1 i… https://t.co/sNu3uGH6rZ</t>
+  </si>
+  <si>
+    <t>2022 is over (at least in UAE🇦🇪).
+Happy New Year! https://t.co/M108AtSndr</t>
+  </si>
+  <si>
+    <t>The interns just told me it was not an official South Park episode. 😂 it was community made. Guess will have to wai… https://t.co/xdaFQ1604f</t>
+  </si>
+  <si>
+    <t>@notEezzy @nobsfud He could just unfollow. 😂</t>
+  </si>
+  <si>
+    <t>@SirMrMeowmeow Nice. You will get there.</t>
+  </si>
+  <si>
+    <t>@CrypttoAhmet Andrew Tate ordered the wrong pizza. 😂</t>
+  </si>
+  <si>
+    <t>@spideycyp_155 Easy one.</t>
+  </si>
+  <si>
+    <t>@CryptoNCoffeee If I can do it with my weak back, then…</t>
+  </si>
+  <si>
+    <t>@GollumsGems Yes sir</t>
+  </si>
+  <si>
+    <t>What’s on your bucket list?</t>
+  </si>
+  <si>
+    <t>@Berit1p Not any more.</t>
+  </si>
+  <si>
+    <t>@deba215 My assistant and his excel. 😂</t>
+  </si>
+  <si>
+    <t>@Rm29836133 @CryptoKing_Kong Happy new year!</t>
+  </si>
+  <si>
+    <t>@Eunicedwong But I been to much less “bucket list” places though. Usually just airport, hotel, airport…  I need to be more touristy in 2023.</t>
+  </si>
+  <si>
+    <t>@Eunicedwong Wow, you been to all these places in 2022?</t>
+  </si>
+  <si>
+    <t>Just got a new pic This is the same shop in Turkey🇹🇷, right? https://t.co/YVVkJZRKAI https://t.co/z1rSj9BL9J</t>
+  </si>
+  <si>
+    <t>@CryptoKing_Kong Got a nice tan out of it.</t>
+  </si>
+  <si>
+    <t>I have spent 580 hours in airplanes this year. Flying, not counting on ground time. Visited 43 countries in total,… https://t.co/s27hlgtgJY</t>
+  </si>
+  <si>
+    <t>I am gonna stop working for the rest of the, year.
+Actually, I took a Block Leave for the last 2 weeks. Skipped al… https://t.co/OIaDStgYLm</t>
+  </si>
+  <si>
+    <t>RIP Barbara https://t.co/blmFO68BxS</t>
+  </si>
+  <si>
+    <t>RT @ikigai_myagi: @IOHK_Charles Took this picture while visiting your bison. Included good ol Mister Turt. https://t.co/5AunolR2Aq</t>
+  </si>
+  <si>
+    <t>@SlinQ I didn't say that and it's obvious that you don't want to have a real conversation about this thus I'm out. Cheers</t>
+  </si>
+  <si>
+    <t>@SlinQ No they don't. Men tend to be in much more dangerous vocations from soldiers to police officers. When they g… https://t.co/5DY1NPOzV7</t>
+  </si>
+  <si>
+    <t>@SlinQ Lack of meaning and purpose combined with untreated TBIs, PTSD, and the destruction of our economic agency i… https://t.co/6M13qip5BZ</t>
+  </si>
+  <si>
+    <t>In 2022, stoicism and competition are signs of a mental illness https://t.co/AxzpAVyaK9. https://t.co/o8ZBnQl4Gv</t>
+  </si>
+  <si>
+    <t>Bison are looking good https://t.co/YmI6t4tqdF</t>
+  </si>
+  <si>
+    <t>@WholeMarsBlog Agreed, update coming in Jan</t>
+  </si>
+  <si>
+    <t>@jpr007 I’d like to thank the people of Norway again for their incredible support of electric vehicles. Norway rocks!! 🇳🇴</t>
+  </si>
+  <si>
+    <t>@ScottAdamsSays @Mediaite Yeah, this is silly. I love your work!</t>
+  </si>
+  <si>
+    <t>@TimRunsHisMouth @ZaleskiLuke Exactly! I am obviously “moderate wing”, except as viewed by the far left.</t>
+  </si>
+  <si>
+    <t>@pmarca Piketty is a misanthrope</t>
+  </si>
+  <si>
+    <t>@drefanzor @oadegbolamdphd @fahmialalam On the list</t>
+  </si>
+  <si>
+    <t>Sometimes it’s just better to make pizza at home</t>
+  </si>
+  <si>
+    <t>@oadegbolamdphd @fahmialalam Absolutely</t>
+  </si>
+  <si>
+    <t>@hodgetwins @TheBabylonBee Key test for authenticity is how someone is in live back &amp;amp; forth discussion where canned… https://t.co/OvMjJJ8qht</t>
+  </si>
+  <si>
+    <t>Unlike likes, bookmarks are private</t>
+  </si>
+  <si>
+    <t>@fahmialalam Yes</t>
+  </si>
+  <si>
+    <t>Easy to create folders to bookmark tweets into various categories</t>
+  </si>
+  <si>
+    <t>Twitter has a bookmark function accessible through share button on tweet. 
+To read bookmarks, tap profile icon.
+T… https://t.co/vrEqLL39xn</t>
+  </si>
+  <si>
+    <t>@stillgray To the best of my knowledge, I have never met him, nor was I at that Halloween party in Romania</t>
+  </si>
+  <si>
+    <t>@alex_avoigt Please take both of those sentences fully to heart!</t>
+  </si>
+  <si>
+    <t>@MuskUniversity Absolutely</t>
+  </si>
+  <si>
+    <t>@WholeMarsBlog Tesla Megapack (and Powerwall) will make a massive difference to achieving a sustainable energy future for Earth!</t>
+  </si>
+  <si>
+    <t>@WholeMarsBlog Yup, should be the best deal in town!</t>
+  </si>
+  <si>
+    <t>RT @eaglelex_eth: 11/The work at @0xPolygon 💜 and the directions of passionate and experienced leaders as @sandeepnailwal @sourcex44 @Grend…</t>
+  </si>
+  <si>
+    <t>RT @eaglelex_eth: 1/The future of #DeFi 
+Some “end of the year reflections” 🧵 https://t.co/VLRcZmiUTL</t>
+  </si>
+  <si>
+    <t>RT @thematicman: 🎆 10 POLYGON NFT PROJECTS SET TO EXPLODE IN 2023 (Part 1) 🎆
+🎯 With @sandeepnailwal and @Fwiz indicating a Polygon priorit…</t>
+  </si>
+  <si>
+    <t>@frankdegods https://t.co/MGDGsRXeYb</t>
+  </si>
+  <si>
+    <t>RT @frankdegods: Hold tight, excited to share the 2023 game plan for y00ts &amp;amp; DeGods. 
+Both will be different, but both are equally ambitio…</t>
+  </si>
+  <si>
+    <t>RT @NarbTrading: Gn @0xPolygon fam
+Can’t wait to tell you all gm tomorrow🫡💜 https://t.co/WRCUhH7wn1</t>
+  </si>
+  <si>
+    <t>RT @A10tionLabs: My last thread was on Polygon NFT projects.
+I found some more amazing projects💜
+Have a look at them in just 2 mins in th…</t>
+  </si>
+  <si>
+    <t>RT @frankdegods: @NarbTrading let’s bridge some defi bros to JPEGs</t>
+  </si>
+  <si>
+    <t>RT @dlubarov: I think there's a bit too much focus on zkVM performance. Even with type-1 zkEVMs, proving costs should be negligible compare…</t>
+  </si>
+  <si>
+    <t>RT @bobbinth: In ZKP systems, recursive proof verification is borderline magic: it lets us compress many proofs to the size of one. But it…</t>
+  </si>
+  <si>
+    <t>@AlecTorelli @hexualhealer Play net positive games</t>
+  </si>
+  <si>
+    <t>@AlecTorelli Everything teaches other skills. And yes much of all that stuff is trash as well. We are literally dying slowly as we type</t>
+  </si>
+  <si>
+    <t>@AlecTorelli Reminder that poker sucks. https://t.co/Ody5Nj5kk9</t>
+  </si>
+  <si>
+    <t>Our goal at Huobi is to provide a platform that is open and accessible to all projects 🙏</t>
+  </si>
+  <si>
+    <t>We are committed to upholding the highest standards of neutrality and fairness at @HuobiGlobal. When it comes to li… https://t.co/gtddTHB1RX</t>
+  </si>
+  <si>
+    <t>Thank you for being a part of our journey and we can't wait to see what the coming year will bring. Here's to a hea… https://t.co/tfXWOgBuxI</t>
+  </si>
+  <si>
+    <t>Happy New Year to our amazing #TRON and #Huobi community! We are so grateful for your support and participation in… https://t.co/tZay2JHw7L</t>
+  </si>
+  <si>
+    <t>✨As I look back on 2022, I'm proud of what I've seen accomplished. In particular, #TRON's global expansion &amp;amp; compli… https://t.co/LQAUIG1Q57</t>
+  </si>
+  <si>
+    <t>@therealchaseeb gm</t>
+  </si>
+  <si>
+    <t>RT @metaplex: 1/ Big Friday update on royalties 🎉
+Creators will be able to start upgrading existing NFT collections starting next week and…</t>
+  </si>
+  <si>
+    <t>RT @amirhaleem: IOT sensors now sending over 1bn messages a month on the @helium network...
+once 5G and @helium_mobile gets added into the…</t>
+  </si>
+  <si>
+    <t>RT @jane_everstake: 1/6
+A true metric of the network's health: facing a lot of liquidations, record volatility, 6x DeFi volumes in Nov &amp;amp; De…</t>
+  </si>
+  <si>
+    <t>RT @TVRN20: I will buy 1 $LTC for every like on this tweet at midnight tonight.
+Will move to cold storage and post receipt after the ball…</t>
+  </si>
+  <si>
+    <t>RT @LTCFoundation: Happy New Year from all of us at the Litecoin Foundation!🥂 We wanted to take a moment to express our gratitude to everyo…</t>
+  </si>
+  <si>
+    <t>@shaolin_flow it was ultimately the late 17th century revolution in England that would start the demonetization of… https://t.co/ntzuePJL6J</t>
+  </si>
+  <si>
+    <t>@shaolin_flow ... based on availability. eg coinage in ismalic region 1000 AD was gold while in europe its silver d… https://t.co/Ef9BwmEQBz</t>
+  </si>
+  <si>
+    <t>@shaolin_flow gold and silver ebbed and flowed in different regions. gold was money in egypt while silver was money… https://t.co/BWXMrMaDIT</t>
+  </si>
+  <si>
+    <t>35/ There’s lots more to say on the subject. This thread resulted from some “Babylonian-madness” I endured while wo… https://t.co/B5qeHv1z79</t>
+  </si>
+  <si>
+    <t>34/ 
+- Sherratt - Why was (and is) silver sexy? Silver during the 4th–3rd millennia in the Near East and Mesopotami… https://t.co/cBRtKV68Ic</t>
+  </si>
+  <si>
+    <t>33/ For some references on this topic, check out:
+- Hudson - The Archaeology of Money: Debt versus Barter Theories… https://t.co/ps43AHz93a</t>
+  </si>
+  <si>
+    <t>32/ If this line of inquiry interests you, I encourage you to read @drumm_colin’s thesis, and to subscribe to his M… https://t.co/xp3O5TcW5w</t>
+  </si>
+  <si>
+    <t>31/ But perhaps in our post-2008/2020 turbulent climate, the meaning of outside money will come to reassert itself,… https://t.co/Szrd2jfMBo</t>
+  </si>
+  <si>
+    <t>30/ Some 5000 years later, these two origins continue to reflect a basic distinction between outside and inside mon… https://t.co/M3QYFFvjO4</t>
+  </si>
+  <si>
+    <t>29/ If anything, it appears the shekel was a fusion between two distinct origins - one based on precious material u… https://t.co/GTDclMIsXM</t>
+  </si>
+  <si>
+    <t>28/ Surely there were economic phenomena before states - early forms of trade and barter on the one hand, and payme… https://t.co/kZAZo41oHr</t>
+  </si>
+  <si>
+    <t>27/ On the other hand, metallists emphasize commodity nature of money - its the metal stupid! And while money conta… https://t.co/R9ZQR0tRHE</t>
+  </si>
+  <si>
+    <t>26/ Naturally, both sides are right! Many point to coinage as the major origin of money. Chartalists emphasize the… https://t.co/fUOxY21fq5</t>
+  </si>
+  <si>
+    <t>25/ A big debate rages among monetary wonks about the origins and nature of money - is money a creature of nature o… https://t.co/ap65SoHfZp</t>
+  </si>
+  <si>
+    <t>24/ Full-blown monetary processes were in effect. And the invention of coinage was still over 1000 years away. Rema… https://t.co/HNrixMNJPH</t>
+  </si>
+  <si>
+    <t>23/ By the early 2nd millennium BC, there is full blown profit-seeking trade, denominated in silver, and organized… https://t.co/gromFmQZE9</t>
+  </si>
+  <si>
+    <t>22/ Over the 3rd millennium, silver would come to play an increasingly dominant role as a settlement media, especia… https://t.co/7fBy9QD5bO</t>
+  </si>
+  <si>
+    <t>21/ In these early days of writing, most settlement was done in grain. The silver unit of account served primarily… https://t.co/OVOFGgEXQM</t>
+  </si>
+  <si>
+    <t>20/ The word shekel means "to weigh"/"to pay". The unit was standardized such that 1 shekel was worth about a month… https://t.co/fu7i5Q6uQM</t>
+  </si>
+  <si>
+    <t>19/ The implication of this move is profound. Whereas before you might have owed some grains and some cattle, now,… https://t.co/OxCkZtFlhA</t>
+  </si>
+  <si>
+    <t>18/ The seemingly magical step in the origin of money was the encoding of an equivalence between a weight of silver… https://t.co/nEeVaue2qX</t>
+  </si>
+  <si>
+    <t>17/ Metals embody some other inherent quality, besides count: weight. And metals weigh much more than grains and ca… https://t.co/sShhPdxCub</t>
+  </si>
+  <si>
+    <t>16/ Specific metal objects do come in counts of course - pieces of jewelry, number of ingots - but metals are fluid… https://t.co/UwmQzBggwl</t>
+  </si>
+  <si>
+    <t>15/ The earliest recorded obligations are denominated in counts - grains of barley, heads of cattle. But the metals… https://t.co/5gYr3dmfe7</t>
+  </si>
+  <si>
+    <t>14/ But unlike gold, which occurs naturally in Earth, silver is often in alloys or ore, and has to be extracted. No… https://t.co/3uHTKfqDcY</t>
+  </si>
+  <si>
+    <t>13/ Gold &amp;amp; Copper were already well known. Indeed, the era is known as the Copper Age. Copper was highly useful for… https://t.co/AbJ3N2bOcp</t>
+  </si>
+  <si>
+    <t>12/ Silver, huh? Silver makes its first appearance in Mesopotamia in the 4th millennium BC, though there are no nat… https://t.co/DCpcCBaah0</t>
+  </si>
+  <si>
+    <t>11/ These earliest written accounts are all obligations. Who owes how much what. Temple palaces were coordinating t… https://t.co/ePLvPA8TUV</t>
+  </si>
+  <si>
+    <t>10/ Double entry wouldn't be seen again until Arab (and then Italian) merchants started using it with a new numeral… https://t.co/gUUKtmzwby</t>
+  </si>
+  <si>
+    <t>9/ This early double-entry system would soon be dispensed with as it was realized that stamping and etching clay di… https://t.co/SCTZWunu2E</t>
+  </si>
+  <si>
+    <t>8/ But its also a kind of double entry accounting! Inside the envelope were asset accounts represented by different… https://t.co/AHrQXSrsKb</t>
+  </si>
+  <si>
+    <t>7/ By ~3300BC, something remarkable happened. The tokens were being stamped into the surface of the clay envelopes,… https://t.co/vuyPeGRJdL</t>
+  </si>
+  <si>
+    <t>6/ By the 4th millennium BC, tokens were being stored together in clay "envelopes" or balls, and sealed with a kind… https://t.co/hn5cTL2rm8</t>
+  </si>
+  <si>
+    <t>5/ By the mid 5th millennium BC, a new, more complex kind of city was rising in southern Mesopotamia and new, more… https://t.co/gQbtUZjOXJ</t>
+  </si>
+  <si>
+    <t>4/ So 10k years ago, we were doing accounting, in a proto-language made of little objects. And remarkably, this pro… https://t.co/9EGp1VsT6X</t>
+  </si>
+  <si>
+    <t>3/ Since as long as we've had surpluses, we've had to manage them, a dynamic process of accumulation and redistribu… https://t.co/e4hPqLNb7x</t>
+  </si>
+  <si>
+    <t>2/ Our story begins with farming, which takes root in the Near East around 8000BC, giving rise to accumulated surpl… https://t.co/ERO36JsXiy</t>
+  </si>
+  <si>
+    <t>1/ Our modern monetary woes are the 5000 year consequence of the shekel. Its origin in the temple palaces of Mesopo… https://t.co/iRSlmqESNm</t>
+  </si>
+  <si>
+    <t>2022-12-31</t>
   </si>
   <si>
     <t>reply</t>
   </si>
   <si>
+    <t>retweet</t>
+  </si>
+  <si>
     <t>direct</t>
-  </si>
-  <si>
-    <t>retweet</t>
   </si>
   <si>
     <t>quote</t>
@@ -1090,7 +908,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M126"/>
+  <dimension ref="A1:M147"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1139,7 +957,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.605242788232462E+18</v>
+        <v>1.609334004917965E+18</v>
       </c>
       <c r="C2" t="s">
         <v>12</v>
@@ -1154,19 +972,19 @@
         <v>43</v>
       </c>
       <c r="G2" t="s">
-        <v>135</v>
+        <v>166</v>
       </c>
       <c r="H2" t="s">
-        <v>226</v>
+        <v>167</v>
       </c>
       <c r="I2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J2">
-        <v>62</v>
+        <v>11</v>
       </c>
       <c r="K2">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="L2">
         <v>12</v>
@@ -1180,7 +998,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.605241326278255E+18</v>
+        <v>1.609312409491067E+18</v>
       </c>
       <c r="C3" t="s">
         <v>12</v>
@@ -1195,19 +1013,19 @@
         <v>44</v>
       </c>
       <c r="G3" t="s">
-        <v>136</v>
+        <v>166</v>
       </c>
       <c r="H3" t="s">
-        <v>227</v>
+        <v>168</v>
       </c>
       <c r="I3">
-        <v>248</v>
+        <v>545</v>
       </c>
       <c r="J3">
-        <v>2427</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="L3">
         <v>12</v>
@@ -1221,7 +1039,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.605239980695093E+18</v>
+        <v>1.609310102338544E+18</v>
       </c>
       <c r="C4" t="s">
         <v>12</v>
@@ -1236,19 +1054,19 @@
         <v>45</v>
       </c>
       <c r="G4" t="s">
-        <v>137</v>
+        <v>166</v>
       </c>
       <c r="H4" t="s">
-        <v>228</v>
+        <v>167</v>
       </c>
       <c r="I4">
-        <v>225</v>
+        <v>545</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>5233</v>
       </c>
       <c r="K4">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="L4">
         <v>12</v>
@@ -1262,7 +1080,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.605239967055483E+18</v>
+        <v>1.609215293754163E+18</v>
       </c>
       <c r="C5" t="s">
         <v>12</v>
@@ -1277,19 +1095,19 @@
         <v>46</v>
       </c>
       <c r="G5" t="s">
-        <v>138</v>
+        <v>166</v>
       </c>
       <c r="H5" t="s">
-        <v>226</v>
+        <v>167</v>
       </c>
       <c r="I5">
-        <v>245</v>
+        <v>171</v>
       </c>
       <c r="J5">
-        <v>1718</v>
+        <v>4967</v>
       </c>
       <c r="K5">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="L5">
         <v>12</v>
@@ -1303,7 +1121,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.605237369677947E+18</v>
+        <v>1.609209529706873E+18</v>
       </c>
       <c r="C6" t="s">
         <v>12</v>
@@ -1318,19 +1136,19 @@
         <v>47</v>
       </c>
       <c r="G6" t="s">
-        <v>139</v>
+        <v>166</v>
       </c>
       <c r="H6" t="s">
-        <v>226</v>
+        <v>167</v>
       </c>
       <c r="I6">
-        <v>7</v>
+        <v>398</v>
       </c>
       <c r="J6">
-        <v>82</v>
+        <v>2742</v>
       </c>
       <c r="K6">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="L6">
         <v>12</v>
@@ -1344,7 +1162,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.605233665339957E+18</v>
+        <v>1.609207715905028E+18</v>
       </c>
       <c r="C7" t="s">
         <v>12</v>
@@ -1359,19 +1177,19 @@
         <v>48</v>
       </c>
       <c r="G7" t="s">
-        <v>140</v>
+        <v>166</v>
       </c>
       <c r="H7" t="s">
-        <v>228</v>
+        <v>167</v>
       </c>
       <c r="I7">
-        <v>76</v>
+        <v>3</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="K7">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="L7">
         <v>12</v>
@@ -1385,34 +1203,34 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.605079117124481E+18</v>
+        <v>1.609302496094167E+18</v>
       </c>
       <c r="C8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E8" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F8" t="s">
         <v>49</v>
       </c>
       <c r="G8" t="s">
-        <v>141</v>
+        <v>166</v>
       </c>
       <c r="H8" t="s">
-        <v>229</v>
+        <v>167</v>
       </c>
       <c r="I8">
-        <v>583</v>
+        <v>24</v>
       </c>
       <c r="J8">
-        <v>2643</v>
+        <v>34</v>
       </c>
       <c r="K8">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="L8">
         <v>12</v>
@@ -1426,34 +1244,34 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.60507799780719E+18</v>
+        <v>1.60930219428479E+18</v>
       </c>
       <c r="C9" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E9" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F9" t="s">
         <v>50</v>
       </c>
       <c r="G9" t="s">
-        <v>142</v>
+        <v>166</v>
       </c>
       <c r="H9" t="s">
-        <v>226</v>
+        <v>167</v>
       </c>
       <c r="I9">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="J9">
-        <v>150</v>
+        <v>182</v>
       </c>
       <c r="K9">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="L9">
         <v>12</v>
@@ -1467,34 +1285,34 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.605077196376138E+18</v>
+        <v>1.609299227124851E+18</v>
       </c>
       <c r="C10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D10" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E10" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F10" t="s">
         <v>51</v>
       </c>
       <c r="G10" t="s">
-        <v>143</v>
+        <v>166</v>
       </c>
       <c r="H10" t="s">
-        <v>226</v>
+        <v>167</v>
       </c>
       <c r="I10">
-        <v>2</v>
+        <v>49</v>
       </c>
       <c r="J10">
-        <v>25</v>
+        <v>66</v>
       </c>
       <c r="K10">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="L10">
         <v>12</v>
@@ -1508,34 +1326,34 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.605077045452673E+18</v>
+        <v>1.60929889082554E+18</v>
       </c>
       <c r="C11" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D11" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E11" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F11" t="s">
         <v>52</v>
       </c>
       <c r="G11" t="s">
-        <v>144</v>
+        <v>166</v>
       </c>
       <c r="H11" t="s">
-        <v>226</v>
+        <v>167</v>
       </c>
       <c r="I11">
-        <v>50</v>
+        <v>24</v>
       </c>
       <c r="J11">
-        <v>653</v>
+        <v>64</v>
       </c>
       <c r="K11">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="L11">
         <v>12</v>
@@ -1549,34 +1367,34 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.605075399742231E+18</v>
+        <v>1.609298255309074E+18</v>
       </c>
       <c r="C12" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D12" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E12" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F12" t="s">
         <v>53</v>
       </c>
       <c r="G12" t="s">
-        <v>145</v>
+        <v>166</v>
       </c>
       <c r="H12" t="s">
-        <v>226</v>
+        <v>167</v>
       </c>
       <c r="I12">
-        <v>3</v>
+        <v>29</v>
       </c>
       <c r="J12">
-        <v>46</v>
+        <v>82</v>
       </c>
       <c r="K12">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="L12">
         <v>12</v>
@@ -1590,34 +1408,34 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.605075011211067E+18</v>
+        <v>1.609289568351621E+18</v>
       </c>
       <c r="C13" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D13" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E13" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F13" t="s">
         <v>54</v>
       </c>
       <c r="G13" t="s">
-        <v>146</v>
+        <v>166</v>
       </c>
       <c r="H13" t="s">
-        <v>226</v>
+        <v>167</v>
       </c>
       <c r="I13">
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="J13">
-        <v>104</v>
+        <v>60</v>
       </c>
       <c r="K13">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="L13">
         <v>12</v>
@@ -1631,34 +1449,34 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.605071003368964E+18</v>
+        <v>1.609289085285179E+18</v>
       </c>
       <c r="C14" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D14" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E14" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F14" t="s">
         <v>55</v>
       </c>
       <c r="G14" t="s">
-        <v>147</v>
+        <v>166</v>
       </c>
       <c r="H14" t="s">
-        <v>229</v>
+        <v>167</v>
       </c>
       <c r="I14">
-        <v>389</v>
+        <v>54</v>
       </c>
       <c r="J14">
-        <v>2728</v>
+        <v>145</v>
       </c>
       <c r="K14">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="L14">
         <v>12</v>
@@ -1672,34 +1490,34 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.605068282368754E+18</v>
+        <v>1.609288929273946E+18</v>
       </c>
       <c r="C15" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D15" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E15" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F15" t="s">
         <v>56</v>
       </c>
       <c r="G15" t="s">
-        <v>148</v>
+        <v>166</v>
       </c>
       <c r="H15" t="s">
-        <v>226</v>
+        <v>167</v>
       </c>
       <c r="I15">
-        <v>6</v>
+        <v>49</v>
       </c>
       <c r="J15">
-        <v>76</v>
+        <v>61</v>
       </c>
       <c r="K15">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="L15">
         <v>12</v>
@@ -1713,34 +1531,34 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.605066200996008E+18</v>
+        <v>1.609287925283586E+18</v>
       </c>
       <c r="C16" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D16" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E16" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F16" t="s">
         <v>57</v>
       </c>
       <c r="G16" t="s">
-        <v>149</v>
+        <v>166</v>
       </c>
       <c r="H16" t="s">
-        <v>226</v>
+        <v>167</v>
       </c>
       <c r="I16">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="J16">
-        <v>138</v>
+        <v>37</v>
       </c>
       <c r="K16">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="L16">
         <v>12</v>
@@ -1754,34 +1572,34 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.605063822536069E+18</v>
+        <v>1.609287680113746E+18</v>
       </c>
       <c r="C17" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D17" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E17" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F17" t="s">
         <v>58</v>
       </c>
       <c r="G17" t="s">
-        <v>150</v>
+        <v>166</v>
       </c>
       <c r="H17" t="s">
-        <v>228</v>
+        <v>167</v>
       </c>
       <c r="I17">
-        <v>192</v>
+        <v>35</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="K17">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="L17">
         <v>12</v>
@@ -1795,7 +1613,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.605231386453049E+18</v>
+        <v>1.609286648231244E+18</v>
       </c>
       <c r="C18" t="s">
         <v>13</v>
@@ -1810,19 +1628,19 @@
         <v>59</v>
       </c>
       <c r="G18" t="s">
-        <v>151</v>
+        <v>166</v>
       </c>
       <c r="H18" t="s">
-        <v>229</v>
+        <v>167</v>
       </c>
       <c r="I18">
-        <v>1305</v>
+        <v>24</v>
       </c>
       <c r="J18">
-        <v>4060</v>
+        <v>33</v>
       </c>
       <c r="K18">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="L18">
         <v>12</v>
@@ -1836,34 +1654,34 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.605097243811336E+18</v>
+        <v>1.609286153013973E+18</v>
       </c>
       <c r="C19" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D19" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E19" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F19" t="s">
         <v>60</v>
       </c>
       <c r="G19" t="s">
-        <v>152</v>
+        <v>166</v>
       </c>
       <c r="H19" t="s">
-        <v>227</v>
+        <v>169</v>
       </c>
       <c r="I19">
-        <v>16</v>
+        <v>455</v>
       </c>
       <c r="J19">
-        <v>197</v>
+        <v>4341</v>
       </c>
       <c r="K19">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="L19">
         <v>12</v>
@@ -1877,34 +1695,34 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.60501843905094E+18</v>
+        <v>1.609283679590793E+18</v>
       </c>
       <c r="C20" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D20" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E20" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F20" t="s">
         <v>61</v>
       </c>
       <c r="G20" t="s">
-        <v>153</v>
+        <v>166</v>
       </c>
       <c r="H20" t="s">
-        <v>228</v>
+        <v>169</v>
       </c>
       <c r="I20">
-        <v>66</v>
+        <v>958</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>7427</v>
       </c>
       <c r="K20">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="L20">
         <v>12</v>
@@ -1918,34 +1736,34 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.604976902036673E+18</v>
+        <v>1.609220047502811E+18</v>
       </c>
       <c r="C21" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D21" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E21" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F21" t="s">
         <v>62</v>
       </c>
       <c r="G21" t="s">
-        <v>154</v>
+        <v>166</v>
       </c>
       <c r="H21" t="s">
-        <v>227</v>
+        <v>170</v>
       </c>
       <c r="I21">
-        <v>157</v>
+        <v>220</v>
       </c>
       <c r="J21">
-        <v>625</v>
+        <v>2345</v>
       </c>
       <c r="K21">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="L21">
         <v>12</v>
@@ -1959,34 +1777,34 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.604976251412046E+18</v>
+        <v>1.60917563081327E+18</v>
       </c>
       <c r="C22" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D22" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E22" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F22" t="s">
         <v>63</v>
       </c>
       <c r="G22" t="s">
-        <v>155</v>
+        <v>166</v>
       </c>
       <c r="H22" t="s">
-        <v>227</v>
+        <v>167</v>
       </c>
       <c r="I22">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="J22">
-        <v>280</v>
+        <v>35</v>
       </c>
       <c r="K22">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="L22">
         <v>12</v>
@@ -2000,34 +1818,34 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.605254853692908E+18</v>
+        <v>1.6091750660714E+18</v>
       </c>
       <c r="C23" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D23" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E23" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F23" t="s">
         <v>64</v>
       </c>
       <c r="G23" t="s">
-        <v>156</v>
+        <v>166</v>
       </c>
       <c r="H23" t="s">
-        <v>226</v>
+        <v>167</v>
       </c>
       <c r="I23">
-        <v>3538</v>
+        <v>22</v>
       </c>
       <c r="J23">
-        <v>16957</v>
+        <v>128</v>
       </c>
       <c r="K23">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="L23">
         <v>12</v>
@@ -2041,34 +1859,34 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.605250734206886E+18</v>
+        <v>1.60917476109518E+18</v>
       </c>
       <c r="C24" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D24" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E24" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F24" t="s">
         <v>65</v>
       </c>
       <c r="G24" t="s">
-        <v>157</v>
+        <v>166</v>
       </c>
       <c r="H24" t="s">
-        <v>226</v>
+        <v>167</v>
       </c>
       <c r="I24">
-        <v>397</v>
+        <v>35</v>
       </c>
       <c r="J24">
-        <v>9501</v>
+        <v>423</v>
       </c>
       <c r="K24">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="L24">
         <v>12</v>
@@ -2082,34 +1900,34 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.605250527729689E+18</v>
+        <v>1.609174629406446E+18</v>
       </c>
       <c r="C25" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D25" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E25" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F25" t="s">
         <v>66</v>
       </c>
       <c r="G25" t="s">
-        <v>158</v>
+        <v>166</v>
       </c>
       <c r="H25" t="s">
-        <v>226</v>
+        <v>167</v>
       </c>
       <c r="I25">
-        <v>133</v>
+        <v>23</v>
       </c>
       <c r="J25">
-        <v>2573</v>
+        <v>66</v>
       </c>
       <c r="K25">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="L25">
         <v>12</v>
@@ -2123,34 +1941,34 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>1.605247858030318E+18</v>
+        <v>1.609173908304822E+18</v>
       </c>
       <c r="C26" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D26" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E26" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F26" t="s">
         <v>67</v>
       </c>
       <c r="G26" t="s">
-        <v>159</v>
+        <v>166</v>
       </c>
       <c r="H26" t="s">
-        <v>229</v>
+        <v>167</v>
       </c>
       <c r="I26">
-        <v>5998</v>
+        <v>26</v>
       </c>
       <c r="J26">
-        <v>35263</v>
+        <v>92</v>
       </c>
       <c r="K26">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="L26">
         <v>12</v>
@@ -2164,34 +1982,34 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>1.605247446057107E+18</v>
+        <v>1.609173761491714E+18</v>
       </c>
       <c r="C27" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D27" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E27" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F27" t="s">
         <v>68</v>
       </c>
       <c r="G27" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="H27" t="s">
-        <v>226</v>
+        <v>167</v>
       </c>
       <c r="I27">
-        <v>819</v>
+        <v>50</v>
       </c>
       <c r="J27">
-        <v>11548</v>
+        <v>219</v>
       </c>
       <c r="K27">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="L27">
         <v>12</v>
@@ -2205,34 +2023,34 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>1.605229127874843E+18</v>
+        <v>1.60917288408517E+18</v>
       </c>
       <c r="C28" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D28" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E28" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F28" t="s">
         <v>69</v>
       </c>
       <c r="G28" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="H28" t="s">
-        <v>228</v>
+        <v>169</v>
       </c>
       <c r="I28">
-        <v>1333</v>
+        <v>1033</v>
       </c>
       <c r="J28">
-        <v>0</v>
+        <v>8590</v>
       </c>
       <c r="K28">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="L28">
         <v>12</v>
@@ -2246,34 +2064,34 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>1.605227756085813E+18</v>
+        <v>1.609172788534993E+18</v>
       </c>
       <c r="C29" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D29" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E29" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F29" t="s">
         <v>70</v>
       </c>
       <c r="G29" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="H29" t="s">
-        <v>226</v>
+        <v>167</v>
       </c>
       <c r="I29">
-        <v>615</v>
+        <v>22</v>
       </c>
       <c r="J29">
-        <v>14048</v>
+        <v>23</v>
       </c>
       <c r="K29">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="L29">
         <v>12</v>
@@ -2287,34 +2105,34 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>1.605222188184994E+18</v>
+        <v>1.609172745790661E+18</v>
       </c>
       <c r="C30" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D30" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E30" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F30" t="s">
         <v>71</v>
       </c>
       <c r="G30" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="H30" t="s">
-        <v>226</v>
+        <v>167</v>
       </c>
       <c r="I30">
-        <v>1104</v>
+        <v>23</v>
       </c>
       <c r="J30">
-        <v>20226</v>
+        <v>37</v>
       </c>
       <c r="K30">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="L30">
         <v>12</v>
@@ -2328,34 +2146,34 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>1.605219914813673E+18</v>
+        <v>1.609172633765179E+18</v>
       </c>
       <c r="C31" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D31" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E31" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F31" t="s">
         <v>72</v>
       </c>
       <c r="G31" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="H31" t="s">
-        <v>229</v>
+        <v>167</v>
       </c>
       <c r="I31">
-        <v>43258</v>
+        <v>23</v>
       </c>
       <c r="J31">
-        <v>165821</v>
+        <v>10</v>
       </c>
       <c r="K31">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="L31">
         <v>12</v>
@@ -2369,34 +2187,34 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>1.605219196350222E+18</v>
+        <v>1.609172040527008E+18</v>
       </c>
       <c r="C32" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D32" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E32" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F32" t="s">
         <v>73</v>
       </c>
       <c r="G32" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="H32" t="s">
-        <v>229</v>
+        <v>167</v>
       </c>
       <c r="I32">
-        <v>14866</v>
+        <v>23</v>
       </c>
       <c r="J32">
-        <v>70773</v>
+        <v>122</v>
       </c>
       <c r="K32">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="L32">
         <v>12</v>
@@ -2410,16 +2228,16 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>1.605218842011402E+18</v>
+        <v>1.609169476863377E+18</v>
       </c>
       <c r="C33" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D33" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E33" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F33" t="s">
         <v>74</v>
@@ -2428,16 +2246,16 @@
         <v>166</v>
       </c>
       <c r="H33" t="s">
-        <v>228</v>
+        <v>167</v>
       </c>
       <c r="I33">
-        <v>6091</v>
+        <v>34</v>
       </c>
       <c r="J33">
-        <v>0</v>
+        <v>360</v>
       </c>
       <c r="K33">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="L33">
         <v>12</v>
@@ -2451,34 +2269,34 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>1.605089482788819E+18</v>
+        <v>1.609142044299039E+18</v>
       </c>
       <c r="C34" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D34" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E34" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F34" t="s">
         <v>75</v>
       </c>
       <c r="G34" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="H34" t="s">
-        <v>226</v>
+        <v>170</v>
       </c>
       <c r="I34">
-        <v>414</v>
+        <v>719</v>
       </c>
       <c r="J34">
-        <v>7418</v>
+        <v>5806</v>
       </c>
       <c r="K34">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="L34">
         <v>12</v>
@@ -2492,34 +2310,34 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>1.605084395685249E+18</v>
+        <v>1.60911036922146E+18</v>
       </c>
       <c r="C35" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D35" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E35" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F35" t="s">
         <v>76</v>
       </c>
       <c r="G35" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="H35" t="s">
-        <v>226</v>
+        <v>167</v>
       </c>
       <c r="I35">
-        <v>356</v>
+        <v>23</v>
       </c>
       <c r="J35">
-        <v>6107</v>
+        <v>72</v>
       </c>
       <c r="K35">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="L35">
         <v>12</v>
@@ -2533,34 +2351,34 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>1.60507988882151E+18</v>
+        <v>1.609109689492541E+18</v>
       </c>
       <c r="C36" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D36" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E36" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F36" t="s">
         <v>77</v>
       </c>
       <c r="G36" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="H36" t="s">
-        <v>226</v>
+        <v>170</v>
       </c>
       <c r="I36">
-        <v>6434</v>
+        <v>302</v>
       </c>
       <c r="J36">
-        <v>96837</v>
+        <v>3700</v>
       </c>
       <c r="K36">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="L36">
         <v>12</v>
@@ -2574,34 +2392,34 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>1.605078493481603E+18</v>
+        <v>1.609104051626459E+18</v>
       </c>
       <c r="C37" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D37" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E37" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F37" t="s">
         <v>78</v>
       </c>
       <c r="G37" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="H37" t="s">
-        <v>226</v>
+        <v>169</v>
       </c>
       <c r="I37">
-        <v>744</v>
+        <v>913</v>
       </c>
       <c r="J37">
-        <v>9770</v>
+        <v>14553</v>
       </c>
       <c r="K37">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="L37">
         <v>12</v>
@@ -2615,34 +2433,34 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>1.605077992572494E+18</v>
+        <v>1.609056278952935E+18</v>
       </c>
       <c r="C38" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D38" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E38" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F38" t="s">
         <v>79</v>
       </c>
       <c r="G38" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="H38" t="s">
-        <v>226</v>
+        <v>169</v>
       </c>
       <c r="I38">
-        <v>1436</v>
+        <v>15</v>
       </c>
       <c r="J38">
-        <v>14332</v>
+        <v>225</v>
       </c>
       <c r="K38">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="L38">
         <v>12</v>
@@ -2656,34 +2474,34 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>1.605052086361768E+18</v>
+        <v>1.609050268632773E+18</v>
       </c>
       <c r="C39" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D39" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E39" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F39" t="s">
         <v>80</v>
       </c>
       <c r="G39" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="H39" t="s">
-        <v>226</v>
+        <v>168</v>
       </c>
       <c r="I39">
-        <v>1807</v>
+        <v>11</v>
       </c>
       <c r="J39">
-        <v>28938</v>
+        <v>0</v>
       </c>
       <c r="K39">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="L39">
         <v>12</v>
@@ -2697,34 +2515,34 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>1.605049989943775E+18</v>
+        <v>1.609050186948674E+18</v>
       </c>
       <c r="C40" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D40" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E40" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F40" t="s">
         <v>81</v>
       </c>
       <c r="G40" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="H40" t="s">
-        <v>226</v>
+        <v>167</v>
       </c>
       <c r="I40">
-        <v>7835</v>
+        <v>0</v>
       </c>
       <c r="J40">
-        <v>92076</v>
+        <v>17</v>
       </c>
       <c r="K40">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="L40">
         <v>12</v>
@@ -2738,34 +2556,34 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>1.605015914436596E+18</v>
+        <v>1.609046484078727E+18</v>
       </c>
       <c r="C41" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D41" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E41" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F41" t="s">
         <v>82</v>
       </c>
       <c r="G41" t="s">
-        <v>174</v>
+        <v>166</v>
       </c>
       <c r="H41" t="s">
-        <v>226</v>
+        <v>167</v>
       </c>
       <c r="I41">
-        <v>4233</v>
+        <v>0</v>
       </c>
       <c r="J41">
-        <v>110350</v>
+        <v>27</v>
       </c>
       <c r="K41">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="L41">
         <v>12</v>
@@ -2779,34 +2597,34 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>1.605012813625168E+18</v>
+        <v>1.609007275406143E+18</v>
       </c>
       <c r="C42" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D42" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E42" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F42" t="s">
         <v>83</v>
       </c>
       <c r="G42" t="s">
-        <v>175</v>
+        <v>166</v>
       </c>
       <c r="H42" t="s">
-        <v>226</v>
+        <v>167</v>
       </c>
       <c r="I42">
-        <v>7493</v>
+        <v>10</v>
       </c>
       <c r="J42">
-        <v>67069</v>
+        <v>169</v>
       </c>
       <c r="K42">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="L42">
         <v>12</v>
@@ -2820,34 +2638,34 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>1.605009088043454E+18</v>
+        <v>1.60900552735026E+18</v>
       </c>
       <c r="C43" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D43" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E43" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F43" t="s">
         <v>84</v>
       </c>
       <c r="G43" t="s">
-        <v>176</v>
+        <v>166</v>
       </c>
       <c r="H43" t="s">
-        <v>226</v>
+        <v>169</v>
       </c>
       <c r="I43">
-        <v>1592</v>
+        <v>58</v>
       </c>
       <c r="J43">
-        <v>25300</v>
+        <v>682</v>
       </c>
       <c r="K43">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="L43">
         <v>12</v>
@@ -2861,34 +2679,34 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>1.60500683087455E+18</v>
+        <v>1.608996124727333E+18</v>
       </c>
       <c r="C44" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D44" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E44" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F44" t="s">
         <v>85</v>
       </c>
       <c r="G44" t="s">
-        <v>177</v>
+        <v>166</v>
       </c>
       <c r="H44" t="s">
-        <v>226</v>
+        <v>169</v>
       </c>
       <c r="I44">
-        <v>484</v>
+        <v>53</v>
       </c>
       <c r="J44">
-        <v>13449</v>
+        <v>1875</v>
       </c>
       <c r="K44">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="L44">
         <v>12</v>
@@ -2902,7 +2720,7 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>1.605004914924655E+18</v>
+        <v>1.609313412131037E+18</v>
       </c>
       <c r="C45" t="s">
         <v>15</v>
@@ -2917,19 +2735,19 @@
         <v>86</v>
       </c>
       <c r="G45" t="s">
-        <v>178</v>
+        <v>166</v>
       </c>
       <c r="H45" t="s">
-        <v>228</v>
+        <v>167</v>
       </c>
       <c r="I45">
-        <v>3895</v>
+        <v>809</v>
       </c>
       <c r="J45">
-        <v>0</v>
+        <v>20233</v>
       </c>
       <c r="K45">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="L45">
         <v>12</v>
@@ -2943,7 +2761,7 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>1.604999492557623E+18</v>
+        <v>1.609312363530031E+18</v>
       </c>
       <c r="C46" t="s">
         <v>15</v>
@@ -2958,19 +2776,19 @@
         <v>87</v>
       </c>
       <c r="G46" t="s">
-        <v>179</v>
+        <v>166</v>
       </c>
       <c r="H46" t="s">
-        <v>228</v>
+        <v>167</v>
       </c>
       <c r="I46">
-        <v>2062</v>
+        <v>2070</v>
       </c>
       <c r="J46">
-        <v>0</v>
+        <v>52184</v>
       </c>
       <c r="K46">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="L46">
         <v>12</v>
@@ -2984,7 +2802,7 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>1.604999479597404E+18</v>
+        <v>1.609311085122789E+18</v>
       </c>
       <c r="C47" t="s">
         <v>15</v>
@@ -2999,19 +2817,19 @@
         <v>88</v>
       </c>
       <c r="G47" t="s">
-        <v>180</v>
+        <v>166</v>
       </c>
       <c r="H47" t="s">
-        <v>228</v>
+        <v>167</v>
       </c>
       <c r="I47">
-        <v>2792</v>
+        <v>986</v>
       </c>
       <c r="J47">
-        <v>0</v>
+        <v>21889</v>
       </c>
       <c r="K47">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="L47">
         <v>12</v>
@@ -3025,7 +2843,7 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>1.604999237099717E+18</v>
+        <v>1.609310770906673E+18</v>
       </c>
       <c r="C48" t="s">
         <v>15</v>
@@ -3040,19 +2858,19 @@
         <v>89</v>
       </c>
       <c r="G48" t="s">
-        <v>181</v>
+        <v>166</v>
       </c>
       <c r="H48" t="s">
-        <v>227</v>
+        <v>167</v>
       </c>
       <c r="I48">
-        <v>3384</v>
+        <v>1558</v>
       </c>
       <c r="J48">
-        <v>37860</v>
+        <v>24936</v>
       </c>
       <c r="K48">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="L48">
         <v>12</v>
@@ -3066,7 +2884,7 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>1.604997465169711E+18</v>
+        <v>1.609303808487875E+18</v>
       </c>
       <c r="C49" t="s">
         <v>15</v>
@@ -3081,19 +2899,19 @@
         <v>90</v>
       </c>
       <c r="G49" t="s">
-        <v>182</v>
+        <v>166</v>
       </c>
       <c r="H49" t="s">
-        <v>226</v>
+        <v>167</v>
       </c>
       <c r="I49">
-        <v>2156</v>
+        <v>1000</v>
       </c>
       <c r="J49">
-        <v>64841</v>
+        <v>18579</v>
       </c>
       <c r="K49">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="L49">
         <v>12</v>
@@ -3107,7 +2925,7 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>1.604985324505031E+18</v>
+        <v>1.609256630356693E+18</v>
       </c>
       <c r="C50" t="s">
         <v>15</v>
@@ -3122,19 +2940,19 @@
         <v>91</v>
       </c>
       <c r="G50" t="s">
-        <v>183</v>
+        <v>166</v>
       </c>
       <c r="H50" t="s">
-        <v>226</v>
+        <v>167</v>
       </c>
       <c r="I50">
-        <v>1865</v>
+        <v>297</v>
       </c>
       <c r="J50">
-        <v>24128</v>
+        <v>6098</v>
       </c>
       <c r="K50">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="L50">
         <v>12</v>
@@ -3148,7 +2966,7 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>1.604981780548768E+18</v>
+        <v>1.60925462811342E+18</v>
       </c>
       <c r="C51" t="s">
         <v>15</v>
@@ -3163,19 +2981,19 @@
         <v>92</v>
       </c>
       <c r="G51" t="s">
-        <v>184</v>
+        <v>166</v>
       </c>
       <c r="H51" t="s">
-        <v>226</v>
+        <v>169</v>
       </c>
       <c r="I51">
-        <v>1986</v>
+        <v>45948</v>
       </c>
       <c r="J51">
-        <v>27945</v>
+        <v>761623</v>
       </c>
       <c r="K51">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="L51">
         <v>12</v>
@@ -3189,7 +3007,7 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>1.604941518774608E+18</v>
+        <v>1.609252577698517E+18</v>
       </c>
       <c r="C52" t="s">
         <v>15</v>
@@ -3204,19 +3022,19 @@
         <v>93</v>
       </c>
       <c r="G52" t="s">
-        <v>185</v>
+        <v>166</v>
       </c>
       <c r="H52" t="s">
-        <v>228</v>
+        <v>167</v>
       </c>
       <c r="I52">
-        <v>5142</v>
+        <v>68</v>
       </c>
       <c r="J52">
-        <v>0</v>
+        <v>1658</v>
       </c>
       <c r="K52">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="L52">
         <v>12</v>
@@ -3230,7 +3048,7 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>1.604939861966086E+18</v>
+        <v>1.609252259912897E+18</v>
       </c>
       <c r="C53" t="s">
         <v>15</v>
@@ -3245,19 +3063,19 @@
         <v>94</v>
       </c>
       <c r="G53" t="s">
-        <v>186</v>
+        <v>166</v>
       </c>
       <c r="H53" t="s">
-        <v>228</v>
+        <v>167</v>
       </c>
       <c r="I53">
-        <v>51177</v>
+        <v>1733</v>
       </c>
       <c r="J53">
-        <v>0</v>
+        <v>22505</v>
       </c>
       <c r="K53">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="L53">
         <v>12</v>
@@ -3271,34 +3089,34 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>1.605258583184011E+18</v>
+        <v>1.609127227077321E+18</v>
       </c>
       <c r="C54" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D54" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E54" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F54" t="s">
         <v>95</v>
       </c>
       <c r="G54" t="s">
-        <v>187</v>
+        <v>166</v>
       </c>
       <c r="H54" t="s">
-        <v>228</v>
+        <v>167</v>
       </c>
       <c r="I54">
-        <v>19</v>
+        <v>3957</v>
       </c>
       <c r="J54">
-        <v>0</v>
+        <v>82993</v>
       </c>
       <c r="K54">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="L54">
         <v>12</v>
@@ -3312,34 +3130,34 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>1.60519799193328E+18</v>
+        <v>1.609113198158025E+18</v>
       </c>
       <c r="C55" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D55" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E55" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F55" t="s">
         <v>96</v>
       </c>
       <c r="G55" t="s">
-        <v>188</v>
+        <v>166</v>
       </c>
       <c r="H55" t="s">
-        <v>228</v>
+        <v>167</v>
       </c>
       <c r="I55">
-        <v>14</v>
+        <v>220</v>
       </c>
       <c r="J55">
-        <v>0</v>
+        <v>7482</v>
       </c>
       <c r="K55">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="L55">
         <v>12</v>
@@ -3353,34 +3171,34 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>1.605170942778319E+18</v>
+        <v>1.609112711933366E+18</v>
       </c>
       <c r="C56" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D56" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E56" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F56" t="s">
         <v>97</v>
       </c>
       <c r="G56" t="s">
-        <v>189</v>
+        <v>166</v>
       </c>
       <c r="H56" t="s">
-        <v>228</v>
+        <v>167</v>
       </c>
       <c r="I56">
-        <v>49</v>
+        <v>4612</v>
       </c>
       <c r="J56">
-        <v>0</v>
+        <v>84969</v>
       </c>
       <c r="K56">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="L56">
         <v>12</v>
@@ -3394,34 +3212,34 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>1.605168602520248E+18</v>
+        <v>1.609109899233071E+18</v>
       </c>
       <c r="C57" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D57" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E57" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F57" t="s">
         <v>98</v>
       </c>
       <c r="G57" t="s">
-        <v>190</v>
+        <v>166</v>
       </c>
       <c r="H57" t="s">
-        <v>228</v>
+        <v>169</v>
       </c>
       <c r="I57">
-        <v>10</v>
+        <v>13555</v>
       </c>
       <c r="J57">
-        <v>0</v>
+        <v>185746</v>
       </c>
       <c r="K57">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="L57">
         <v>12</v>
@@ -3435,34 +3253,34 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>1.605121095899546E+18</v>
+        <v>1.609090415516615E+18</v>
       </c>
       <c r="C58" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D58" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E58" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F58" t="s">
         <v>99</v>
       </c>
       <c r="G58" t="s">
-        <v>191</v>
+        <v>166</v>
       </c>
       <c r="H58" t="s">
-        <v>228</v>
+        <v>167</v>
       </c>
       <c r="I58">
-        <v>61</v>
+        <v>1033</v>
       </c>
       <c r="J58">
-        <v>0</v>
+        <v>16029</v>
       </c>
       <c r="K58">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="L58">
         <v>12</v>
@@ -3476,34 +3294,34 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>1.605117876775551E+18</v>
+        <v>1.609061393960927E+18</v>
       </c>
       <c r="C59" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D59" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E59" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F59" t="s">
         <v>100</v>
       </c>
       <c r="G59" t="s">
-        <v>192</v>
+        <v>166</v>
       </c>
       <c r="H59" t="s">
-        <v>228</v>
+        <v>167</v>
       </c>
       <c r="I59">
-        <v>14</v>
+        <v>827</v>
       </c>
       <c r="J59">
-        <v>0</v>
+        <v>15924</v>
       </c>
       <c r="K59">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="L59">
         <v>12</v>
@@ -3517,34 +3335,34 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>1.605113254233211E+18</v>
+        <v>1.609061059935015E+18</v>
       </c>
       <c r="C60" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D60" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E60" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F60" t="s">
         <v>101</v>
       </c>
       <c r="G60" t="s">
-        <v>193</v>
+        <v>166</v>
       </c>
       <c r="H60" t="s">
-        <v>228</v>
+        <v>167</v>
       </c>
       <c r="I60">
-        <v>20</v>
+        <v>1779</v>
       </c>
       <c r="J60">
-        <v>0</v>
+        <v>45039</v>
       </c>
       <c r="K60">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="L60">
         <v>12</v>
@@ -3558,34 +3376,34 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>1.605113241360773E+18</v>
+        <v>1.609057577236562E+18</v>
       </c>
       <c r="C61" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D61" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E61" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F61" t="s">
         <v>102</v>
       </c>
       <c r="G61" t="s">
-        <v>194</v>
+        <v>166</v>
       </c>
       <c r="H61" t="s">
-        <v>228</v>
+        <v>167</v>
       </c>
       <c r="I61">
-        <v>5</v>
+        <v>1116</v>
       </c>
       <c r="J61">
-        <v>0</v>
+        <v>14180</v>
       </c>
       <c r="K61">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="L61">
         <v>12</v>
@@ -3599,34 +3417,34 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>1.605112674542825E+18</v>
+        <v>1.609056547757244E+18</v>
       </c>
       <c r="C62" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D62" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E62" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F62" t="s">
         <v>103</v>
       </c>
       <c r="G62" t="s">
-        <v>195</v>
+        <v>166</v>
       </c>
       <c r="H62" t="s">
-        <v>228</v>
+        <v>167</v>
       </c>
       <c r="I62">
-        <v>78</v>
+        <v>685</v>
       </c>
       <c r="J62">
-        <v>0</v>
+        <v>16266</v>
       </c>
       <c r="K62">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="L62">
         <v>12</v>
@@ -3640,7 +3458,7 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>1.605111565782589E+18</v>
+        <v>1.60920749643416E+18</v>
       </c>
       <c r="C63" t="s">
         <v>16</v>
@@ -3655,19 +3473,19 @@
         <v>104</v>
       </c>
       <c r="G63" t="s">
-        <v>196</v>
+        <v>166</v>
       </c>
       <c r="H63" t="s">
-        <v>228</v>
+        <v>168</v>
       </c>
       <c r="I63">
-        <v>36</v>
+        <v>3</v>
       </c>
       <c r="J63">
         <v>0</v>
       </c>
       <c r="K63">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="L63">
         <v>12</v>
@@ -3681,7 +3499,7 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>1.605108200939872E+18</v>
+        <v>1.609207483825889E+18</v>
       </c>
       <c r="C64" t="s">
         <v>16</v>
@@ -3696,19 +3514,19 @@
         <v>105</v>
       </c>
       <c r="G64" t="s">
-        <v>197</v>
+        <v>166</v>
       </c>
       <c r="H64" t="s">
-        <v>229</v>
+        <v>168</v>
       </c>
       <c r="I64">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="J64">
-        <v>110</v>
+        <v>0</v>
       </c>
       <c r="K64">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="L64">
         <v>12</v>
@@ -3722,7 +3540,7 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>1.605107585975308E+18</v>
+        <v>1.609207102320378E+18</v>
       </c>
       <c r="C65" t="s">
         <v>16</v>
@@ -3737,19 +3555,19 @@
         <v>106</v>
       </c>
       <c r="G65" t="s">
-        <v>198</v>
+        <v>166</v>
       </c>
       <c r="H65" t="s">
-        <v>228</v>
+        <v>168</v>
       </c>
       <c r="I65">
-        <v>19</v>
+        <v>65</v>
       </c>
       <c r="J65">
         <v>0</v>
       </c>
       <c r="K65">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="L65">
         <v>12</v>
@@ -3763,7 +3581,7 @@
         <v>64</v>
       </c>
       <c r="B66">
-        <v>1.605106027149627E+18</v>
+        <v>1.609145465483989E+18</v>
       </c>
       <c r="C66" t="s">
         <v>16</v>
@@ -3778,19 +3596,19 @@
         <v>107</v>
       </c>
       <c r="G66" t="s">
-        <v>199</v>
+        <v>166</v>
       </c>
       <c r="H66" t="s">
-        <v>228</v>
+        <v>167</v>
       </c>
       <c r="I66">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="J66">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="K66">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="L66">
         <v>12</v>
@@ -3804,7 +3622,7 @@
         <v>65</v>
       </c>
       <c r="B67">
-        <v>1.604940744808079E+18</v>
+        <v>1.609145091326874E+18</v>
       </c>
       <c r="C67" t="s">
         <v>16</v>
@@ -3819,19 +3637,19 @@
         <v>108</v>
       </c>
       <c r="G67" t="s">
-        <v>200</v>
+        <v>166</v>
       </c>
       <c r="H67" t="s">
-        <v>228</v>
+        <v>168</v>
       </c>
       <c r="I67">
-        <v>31</v>
+        <v>243</v>
       </c>
       <c r="J67">
         <v>0</v>
       </c>
       <c r="K67">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="L67">
         <v>12</v>
@@ -3845,7 +3663,7 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>1.6049407088587E+18</v>
+        <v>1.609144899231797E+18</v>
       </c>
       <c r="C68" t="s">
         <v>16</v>
@@ -3860,19 +3678,19 @@
         <v>109</v>
       </c>
       <c r="G68" t="s">
-        <v>201</v>
+        <v>166</v>
       </c>
       <c r="H68" t="s">
-        <v>228</v>
+        <v>168</v>
       </c>
       <c r="I68">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="J68">
         <v>0</v>
       </c>
       <c r="K68">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="L68">
         <v>12</v>
@@ -3886,7 +3704,7 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>1.604938679495299E+18</v>
+        <v>1.609087923864879E+18</v>
       </c>
       <c r="C69" t="s">
         <v>16</v>
@@ -3901,19 +3719,19 @@
         <v>110</v>
       </c>
       <c r="G69" t="s">
-        <v>202</v>
+        <v>166</v>
       </c>
       <c r="H69" t="s">
-        <v>228</v>
+        <v>168</v>
       </c>
       <c r="I69">
-        <v>8</v>
+        <v>44</v>
       </c>
       <c r="J69">
         <v>0</v>
       </c>
       <c r="K69">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="L69">
         <v>12</v>
@@ -3927,7 +3745,7 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>1.60493785858166E+18</v>
+        <v>1.609086675774493E+18</v>
       </c>
       <c r="C70" t="s">
         <v>16</v>
@@ -3942,19 +3760,19 @@
         <v>111</v>
       </c>
       <c r="G70" t="s">
-        <v>203</v>
+        <v>166</v>
       </c>
       <c r="H70" t="s">
-        <v>226</v>
+        <v>168</v>
       </c>
       <c r="I70">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J70">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="K70">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="L70">
         <v>12</v>
@@ -3968,7 +3786,7 @@
         <v>69</v>
       </c>
       <c r="B71">
-        <v>1.604937619833496E+18</v>
+        <v>1.609072219707015E+18</v>
       </c>
       <c r="C71" t="s">
         <v>16</v>
@@ -3983,19 +3801,19 @@
         <v>112</v>
       </c>
       <c r="G71" t="s">
-        <v>204</v>
+        <v>166</v>
       </c>
       <c r="H71" t="s">
-        <v>226</v>
+        <v>168</v>
       </c>
       <c r="I71">
+        <v>32</v>
+      </c>
+      <c r="J71">
         <v>0</v>
       </c>
-      <c r="J71">
-        <v>16</v>
-      </c>
       <c r="K71">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="L71">
         <v>12</v>
@@ -4009,7 +3827,7 @@
         <v>70</v>
       </c>
       <c r="B72">
-        <v>1.60493383749813E+18</v>
+        <v>1.609072163213959E+18</v>
       </c>
       <c r="C72" t="s">
         <v>16</v>
@@ -4024,19 +3842,19 @@
         <v>113</v>
       </c>
       <c r="G72" t="s">
-        <v>205</v>
+        <v>166</v>
       </c>
       <c r="H72" t="s">
-        <v>228</v>
+        <v>168</v>
       </c>
       <c r="I72">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="J72">
         <v>0</v>
       </c>
       <c r="K72">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="L72">
         <v>12</v>
@@ -4050,7 +3868,7 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>1.605170533494039E+18</v>
+        <v>1.609204420901802E+18</v>
       </c>
       <c r="C73" t="s">
         <v>17</v>
@@ -4065,19 +3883,19 @@
         <v>114</v>
       </c>
       <c r="G73" t="s">
-        <v>206</v>
+        <v>166</v>
       </c>
       <c r="H73" t="s">
-        <v>226</v>
+        <v>167</v>
       </c>
       <c r="I73">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="J73">
-        <v>21</v>
+        <v>151</v>
       </c>
       <c r="K73">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="L73">
         <v>12</v>
@@ -4091,7 +3909,7 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>1.605168387931673E+18</v>
+        <v>1.609204244879479E+18</v>
       </c>
       <c r="C74" t="s">
         <v>17</v>
@@ -4106,19 +3924,19 @@
         <v>115</v>
       </c>
       <c r="G74" t="s">
-        <v>207</v>
+        <v>166</v>
       </c>
       <c r="H74" t="s">
-        <v>226</v>
+        <v>167</v>
       </c>
       <c r="I74">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="J74">
-        <v>53</v>
+        <v>137</v>
       </c>
       <c r="K74">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="L74">
         <v>12</v>
@@ -4132,7 +3950,7 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>1.605168116249629E+18</v>
+        <v>1.609086704903946E+18</v>
       </c>
       <c r="C75" t="s">
         <v>17</v>
@@ -4147,19 +3965,19 @@
         <v>116</v>
       </c>
       <c r="G75" t="s">
-        <v>208</v>
+        <v>166</v>
       </c>
       <c r="H75" t="s">
-        <v>226</v>
+        <v>167</v>
       </c>
       <c r="I75">
-        <v>3</v>
+        <v>37</v>
       </c>
       <c r="J75">
-        <v>27</v>
+        <v>396</v>
       </c>
       <c r="K75">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="L75">
         <v>12</v>
@@ -4173,34 +3991,34 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>1.605165012267717E+18</v>
+        <v>1.609136804665647E+18</v>
       </c>
       <c r="C76" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D76" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E76" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F76" t="s">
         <v>117</v>
       </c>
       <c r="G76" t="s">
-        <v>209</v>
+        <v>166</v>
       </c>
       <c r="H76" t="s">
-        <v>226</v>
+        <v>167</v>
       </c>
       <c r="I76">
-        <v>1</v>
+        <v>28</v>
       </c>
       <c r="J76">
-        <v>19</v>
+        <v>201</v>
       </c>
       <c r="K76">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="L76">
         <v>12</v>
@@ -4214,34 +4032,34 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>1.605163739979911E+18</v>
+        <v>1.609136627837985E+18</v>
       </c>
       <c r="C77" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D77" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E77" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F77" t="s">
         <v>118</v>
       </c>
       <c r="G77" t="s">
-        <v>210</v>
+        <v>166</v>
       </c>
       <c r="H77" t="s">
-        <v>228</v>
+        <v>169</v>
       </c>
       <c r="I77">
-        <v>110</v>
+        <v>75</v>
       </c>
       <c r="J77">
-        <v>0</v>
+        <v>617</v>
       </c>
       <c r="K77">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="L77">
         <v>12</v>
@@ -4255,34 +4073,34 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>1.605162814108312E+18</v>
+        <v>1.609135464489062E+18</v>
       </c>
       <c r="C78" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D78" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E78" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F78" t="s">
         <v>119</v>
       </c>
       <c r="G78" t="s">
-        <v>211</v>
+        <v>166</v>
       </c>
       <c r="H78" t="s">
-        <v>229</v>
+        <v>167</v>
       </c>
       <c r="I78">
-        <v>52</v>
+        <v>24</v>
       </c>
       <c r="J78">
-        <v>471</v>
+        <v>148</v>
       </c>
       <c r="K78">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="L78">
         <v>12</v>
@@ -4296,34 +4114,34 @@
         <v>77</v>
       </c>
       <c r="B79">
-        <v>1.605162527960302E+18</v>
+        <v>1.609135287124505E+18</v>
       </c>
       <c r="C79" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D79" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E79" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F79" t="s">
         <v>120</v>
       </c>
       <c r="G79" t="s">
-        <v>212</v>
+        <v>166</v>
       </c>
       <c r="H79" t="s">
-        <v>226</v>
+        <v>169</v>
       </c>
       <c r="I79">
-        <v>3</v>
+        <v>83</v>
       </c>
       <c r="J79">
-        <v>54</v>
+        <v>525</v>
       </c>
       <c r="K79">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="L79">
         <v>12</v>
@@ -4337,34 +4155,34 @@
         <v>78</v>
       </c>
       <c r="B80">
-        <v>1.605162335743758E+18</v>
+        <v>1.609056955481612E+18</v>
       </c>
       <c r="C80" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D80" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E80" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F80" t="s">
         <v>121</v>
       </c>
       <c r="G80" t="s">
-        <v>213</v>
+        <v>166</v>
       </c>
       <c r="H80" t="s">
-        <v>227</v>
+        <v>170</v>
       </c>
       <c r="I80">
-        <v>213</v>
+        <v>117</v>
       </c>
       <c r="J80">
-        <v>1341</v>
+        <v>435</v>
       </c>
       <c r="K80">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="L80">
         <v>12</v>
@@ -4378,34 +4196,34 @@
         <v>79</v>
       </c>
       <c r="B81">
-        <v>1.605161280838697E+18</v>
+        <v>1.609313412131037E+18</v>
       </c>
       <c r="C81" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D81" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E81" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F81" t="s">
-        <v>122</v>
+        <v>86</v>
       </c>
       <c r="G81" t="s">
-        <v>214</v>
+        <v>166</v>
       </c>
       <c r="H81" t="s">
-        <v>226</v>
+        <v>167</v>
       </c>
       <c r="I81">
-        <v>4</v>
+        <v>809</v>
       </c>
       <c r="J81">
-        <v>75</v>
+        <v>20233</v>
       </c>
       <c r="K81">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="L81">
         <v>12</v>
@@ -4419,34 +4237,34 @@
         <v>80</v>
       </c>
       <c r="B82">
-        <v>1.605158747999195E+18</v>
+        <v>1.609312363530031E+18</v>
       </c>
       <c r="C82" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D82" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E82" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F82" t="s">
-        <v>123</v>
+        <v>87</v>
       </c>
       <c r="G82" t="s">
-        <v>215</v>
+        <v>166</v>
       </c>
       <c r="H82" t="s">
-        <v>226</v>
+        <v>167</v>
       </c>
       <c r="I82">
-        <v>13</v>
+        <v>2070</v>
       </c>
       <c r="J82">
-        <v>229</v>
+        <v>52184</v>
       </c>
       <c r="K82">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="L82">
         <v>12</v>
@@ -4460,34 +4278,34 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>1.605153096774066E+18</v>
+        <v>1.609311085122789E+18</v>
       </c>
       <c r="C83" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D83" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E83" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F83" t="s">
-        <v>124</v>
+        <v>88</v>
       </c>
       <c r="G83" t="s">
-        <v>216</v>
+        <v>166</v>
       </c>
       <c r="H83" t="s">
-        <v>226</v>
+        <v>167</v>
       </c>
       <c r="I83">
-        <v>6</v>
+        <v>986</v>
       </c>
       <c r="J83">
-        <v>162</v>
+        <v>21889</v>
       </c>
       <c r="K83">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="L83">
         <v>12</v>
@@ -4501,34 +4319,34 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>1.605055363711115E+18</v>
+        <v>1.609310770906673E+18</v>
       </c>
       <c r="C84" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D84" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E84" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F84" t="s">
-        <v>125</v>
+        <v>89</v>
       </c>
       <c r="G84" t="s">
-        <v>217</v>
+        <v>166</v>
       </c>
       <c r="H84" t="s">
-        <v>226</v>
+        <v>167</v>
       </c>
       <c r="I84">
-        <v>11</v>
+        <v>1557</v>
       </c>
       <c r="J84">
-        <v>275</v>
+        <v>24936</v>
       </c>
       <c r="K84">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="L84">
         <v>12</v>
@@ -4542,34 +4360,34 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>1.605133273679639E+18</v>
+        <v>1.609303808487875E+18</v>
       </c>
       <c r="C85" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D85" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="E85" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F85" t="s">
-        <v>126</v>
+        <v>90</v>
       </c>
       <c r="G85" t="s">
-        <v>218</v>
+        <v>166</v>
       </c>
       <c r="H85" t="s">
-        <v>229</v>
+        <v>167</v>
       </c>
       <c r="I85">
-        <v>33</v>
+        <v>1000</v>
       </c>
       <c r="J85">
-        <v>127</v>
+        <v>18579</v>
       </c>
       <c r="K85">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="L85">
         <v>12</v>
@@ -4583,34 +4401,34 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>1.605006000654012E+18</v>
+        <v>1.609256630356693E+18</v>
       </c>
       <c r="C86" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D86" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="E86" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F86" t="s">
-        <v>127</v>
+        <v>91</v>
       </c>
       <c r="G86" t="s">
-        <v>219</v>
+        <v>166</v>
       </c>
       <c r="H86" t="s">
-        <v>229</v>
+        <v>167</v>
       </c>
       <c r="I86">
-        <v>30</v>
+        <v>297</v>
       </c>
       <c r="J86">
-        <v>132</v>
+        <v>6098</v>
       </c>
       <c r="K86">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="L86">
         <v>12</v>
@@ -4624,7 +4442,7 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>1.605254853692908E+18</v>
+        <v>1.60925462811342E+18</v>
       </c>
       <c r="C87" t="s">
         <v>15</v>
@@ -4636,22 +4454,22 @@
         <v>39</v>
       </c>
       <c r="F87" t="s">
-        <v>64</v>
+        <v>92</v>
       </c>
       <c r="G87" t="s">
-        <v>156</v>
+        <v>166</v>
       </c>
       <c r="H87" t="s">
-        <v>226</v>
+        <v>169</v>
       </c>
       <c r="I87">
-        <v>3547</v>
+        <v>45948</v>
       </c>
       <c r="J87">
-        <v>17040</v>
+        <v>761623</v>
       </c>
       <c r="K87">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="L87">
         <v>12</v>
@@ -4665,7 +4483,7 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>1.605250734206886E+18</v>
+        <v>1.609252577698517E+18</v>
       </c>
       <c r="C88" t="s">
         <v>15</v>
@@ -4677,22 +4495,22 @@
         <v>39</v>
       </c>
       <c r="F88" t="s">
-        <v>65</v>
+        <v>93</v>
       </c>
       <c r="G88" t="s">
-        <v>157</v>
+        <v>166</v>
       </c>
       <c r="H88" t="s">
-        <v>226</v>
+        <v>167</v>
       </c>
       <c r="I88">
-        <v>397</v>
+        <v>68</v>
       </c>
       <c r="J88">
-        <v>9512</v>
+        <v>1658</v>
       </c>
       <c r="K88">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="L88">
         <v>12</v>
@@ -4706,7 +4524,7 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>1.605250527729689E+18</v>
+        <v>1.609252259912897E+18</v>
       </c>
       <c r="C89" t="s">
         <v>15</v>
@@ -4718,22 +4536,22 @@
         <v>39</v>
       </c>
       <c r="F89" t="s">
-        <v>66</v>
+        <v>94</v>
       </c>
       <c r="G89" t="s">
-        <v>158</v>
+        <v>166</v>
       </c>
       <c r="H89" t="s">
-        <v>226</v>
+        <v>167</v>
       </c>
       <c r="I89">
-        <v>133</v>
+        <v>1733</v>
       </c>
       <c r="J89">
-        <v>2578</v>
+        <v>22505</v>
       </c>
       <c r="K89">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="L89">
         <v>12</v>
@@ -4747,7 +4565,7 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>1.605247858030318E+18</v>
+        <v>1.609127227077321E+18</v>
       </c>
       <c r="C90" t="s">
         <v>15</v>
@@ -4759,22 +4577,22 @@
         <v>39</v>
       </c>
       <c r="F90" t="s">
-        <v>67</v>
+        <v>95</v>
       </c>
       <c r="G90" t="s">
-        <v>159</v>
+        <v>166</v>
       </c>
       <c r="H90" t="s">
-        <v>229</v>
+        <v>167</v>
       </c>
       <c r="I90">
-        <v>5996</v>
+        <v>3957</v>
       </c>
       <c r="J90">
-        <v>35251</v>
+        <v>82993</v>
       </c>
       <c r="K90">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="L90">
         <v>12</v>
@@ -4788,7 +4606,7 @@
         <v>89</v>
       </c>
       <c r="B91">
-        <v>1.605247446057107E+18</v>
+        <v>1.609113198158025E+18</v>
       </c>
       <c r="C91" t="s">
         <v>15</v>
@@ -4800,22 +4618,22 @@
         <v>39</v>
       </c>
       <c r="F91" t="s">
-        <v>68</v>
+        <v>96</v>
       </c>
       <c r="G91" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="H91" t="s">
-        <v>226</v>
+        <v>167</v>
       </c>
       <c r="I91">
-        <v>820</v>
+        <v>220</v>
       </c>
       <c r="J91">
-        <v>11556</v>
+        <v>7482</v>
       </c>
       <c r="K91">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="L91">
         <v>12</v>
@@ -4829,7 +4647,7 @@
         <v>90</v>
       </c>
       <c r="B92">
-        <v>1.605229127874843E+18</v>
+        <v>1.609112711933366E+18</v>
       </c>
       <c r="C92" t="s">
         <v>15</v>
@@ -4841,22 +4659,22 @@
         <v>39</v>
       </c>
       <c r="F92" t="s">
-        <v>69</v>
+        <v>97</v>
       </c>
       <c r="G92" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="H92" t="s">
-        <v>228</v>
+        <v>167</v>
       </c>
       <c r="I92">
-        <v>1333</v>
+        <v>4612</v>
       </c>
       <c r="J92">
-        <v>0</v>
+        <v>84969</v>
       </c>
       <c r="K92">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="L92">
         <v>12</v>
@@ -4870,7 +4688,7 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>1.605227756085813E+18</v>
+        <v>1.609109899233071E+18</v>
       </c>
       <c r="C93" t="s">
         <v>15</v>
@@ -4882,22 +4700,22 @@
         <v>39</v>
       </c>
       <c r="F93" t="s">
-        <v>70</v>
+        <v>98</v>
       </c>
       <c r="G93" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="H93" t="s">
-        <v>226</v>
+        <v>169</v>
       </c>
       <c r="I93">
-        <v>615</v>
+        <v>13555</v>
       </c>
       <c r="J93">
-        <v>14050</v>
+        <v>185746</v>
       </c>
       <c r="K93">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="L93">
         <v>12</v>
@@ -4911,7 +4729,7 @@
         <v>92</v>
       </c>
       <c r="B94">
-        <v>1.605222188184994E+18</v>
+        <v>1.609090415516615E+18</v>
       </c>
       <c r="C94" t="s">
         <v>15</v>
@@ -4923,22 +4741,22 @@
         <v>39</v>
       </c>
       <c r="F94" t="s">
-        <v>71</v>
+        <v>99</v>
       </c>
       <c r="G94" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="H94" t="s">
-        <v>226</v>
+        <v>167</v>
       </c>
       <c r="I94">
-        <v>1104</v>
+        <v>1033</v>
       </c>
       <c r="J94">
-        <v>20230</v>
+        <v>16029</v>
       </c>
       <c r="K94">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="L94">
         <v>12</v>
@@ -4952,7 +4770,7 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>1.605219914813673E+18</v>
+        <v>1.609061393960927E+18</v>
       </c>
       <c r="C95" t="s">
         <v>15</v>
@@ -4964,22 +4782,22 @@
         <v>39</v>
       </c>
       <c r="F95" t="s">
-        <v>72</v>
+        <v>100</v>
       </c>
       <c r="G95" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="H95" t="s">
-        <v>229</v>
+        <v>167</v>
       </c>
       <c r="I95">
-        <v>43286</v>
+        <v>827</v>
       </c>
       <c r="J95">
-        <v>165914</v>
+        <v>15924</v>
       </c>
       <c r="K95">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="L95">
         <v>12</v>
@@ -4993,7 +4811,7 @@
         <v>94</v>
       </c>
       <c r="B96">
-        <v>1.605219196350222E+18</v>
+        <v>1.609061059935015E+18</v>
       </c>
       <c r="C96" t="s">
         <v>15</v>
@@ -5005,22 +4823,22 @@
         <v>39</v>
       </c>
       <c r="F96" t="s">
-        <v>73</v>
+        <v>101</v>
       </c>
       <c r="G96" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="H96" t="s">
-        <v>229</v>
+        <v>167</v>
       </c>
       <c r="I96">
-        <v>14870</v>
+        <v>1779</v>
       </c>
       <c r="J96">
-        <v>70785</v>
+        <v>45039</v>
       </c>
       <c r="K96">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="L96">
         <v>12</v>
@@ -5034,7 +4852,7 @@
         <v>95</v>
       </c>
       <c r="B97">
-        <v>1.605218842011402E+18</v>
+        <v>1.609057577236562E+18</v>
       </c>
       <c r="C97" t="s">
         <v>15</v>
@@ -5046,22 +4864,22 @@
         <v>39</v>
       </c>
       <c r="F97" t="s">
-        <v>74</v>
+        <v>102</v>
       </c>
       <c r="G97" t="s">
         <v>166</v>
       </c>
       <c r="H97" t="s">
-        <v>228</v>
+        <v>167</v>
       </c>
       <c r="I97">
-        <v>6091</v>
+        <v>1116</v>
       </c>
       <c r="J97">
-        <v>0</v>
+        <v>14180</v>
       </c>
       <c r="K97">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="L97">
         <v>12</v>
@@ -5075,7 +4893,7 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>1.605089482788819E+18</v>
+        <v>1.609056547757244E+18</v>
       </c>
       <c r="C98" t="s">
         <v>15</v>
@@ -5087,22 +4905,22 @@
         <v>39</v>
       </c>
       <c r="F98" t="s">
-        <v>75</v>
+        <v>103</v>
       </c>
       <c r="G98" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="H98" t="s">
-        <v>226</v>
+        <v>167</v>
       </c>
       <c r="I98">
-        <v>414</v>
+        <v>685</v>
       </c>
       <c r="J98">
-        <v>7418</v>
+        <v>16266</v>
       </c>
       <c r="K98">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="L98">
         <v>12</v>
@@ -5116,34 +4934,34 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>1.605084395685249E+18</v>
+        <v>1.609210311642333E+18</v>
       </c>
       <c r="C99" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D99" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="E99" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="F99" t="s">
-        <v>76</v>
+        <v>122</v>
       </c>
       <c r="G99" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="H99" t="s">
-        <v>226</v>
+        <v>167</v>
       </c>
       <c r="I99">
-        <v>356</v>
+        <v>0</v>
       </c>
       <c r="J99">
-        <v>6108</v>
+        <v>21</v>
       </c>
       <c r="K99">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="L99">
         <v>12</v>
@@ -5157,34 +4975,34 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>1.60507988882151E+18</v>
+        <v>1.609207695168381E+18</v>
       </c>
       <c r="C100" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D100" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="E100" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="F100" t="s">
-        <v>77</v>
+        <v>123</v>
       </c>
       <c r="G100" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="H100" t="s">
-        <v>226</v>
+        <v>168</v>
       </c>
       <c r="I100">
-        <v>6435</v>
+        <v>218</v>
       </c>
       <c r="J100">
-        <v>96839</v>
+        <v>0</v>
       </c>
       <c r="K100">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="L100">
         <v>12</v>
@@ -5198,34 +5016,34 @@
         <v>99</v>
       </c>
       <c r="B101">
-        <v>1.605078493481603E+18</v>
+        <v>1.609202251876401E+18</v>
       </c>
       <c r="C101" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D101" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="E101" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="F101" t="s">
-        <v>78</v>
+        <v>124</v>
       </c>
       <c r="G101" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="H101" t="s">
-        <v>226</v>
+        <v>168</v>
       </c>
       <c r="I101">
-        <v>744</v>
+        <v>73</v>
       </c>
       <c r="J101">
-        <v>9770</v>
+        <v>0</v>
       </c>
       <c r="K101">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="L101">
         <v>12</v>
@@ -5239,34 +5057,34 @@
         <v>100</v>
       </c>
       <c r="B102">
-        <v>1.605077992572494E+18</v>
+        <v>1.609202175321719E+18</v>
       </c>
       <c r="C102" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D102" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="E102" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="F102" t="s">
-        <v>79</v>
+        <v>125</v>
       </c>
       <c r="G102" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="H102" t="s">
-        <v>226</v>
+        <v>168</v>
       </c>
       <c r="I102">
-        <v>1436</v>
+        <v>99</v>
       </c>
       <c r="J102">
-        <v>14334</v>
+        <v>0</v>
       </c>
       <c r="K102">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="L102">
         <v>12</v>
@@ -5280,34 +5098,34 @@
         <v>101</v>
       </c>
       <c r="B103">
-        <v>1.605052086361768E+18</v>
+        <v>1.609136804665647E+18</v>
       </c>
       <c r="C103" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D103" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="E103" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F103" t="s">
-        <v>80</v>
+        <v>117</v>
       </c>
       <c r="G103" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="H103" t="s">
-        <v>226</v>
+        <v>167</v>
       </c>
       <c r="I103">
-        <v>1807</v>
+        <v>28</v>
       </c>
       <c r="J103">
-        <v>28938</v>
+        <v>201</v>
       </c>
       <c r="K103">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="L103">
         <v>12</v>
@@ -5321,34 +5139,34 @@
         <v>102</v>
       </c>
       <c r="B104">
-        <v>1.605049989943775E+18</v>
+        <v>1.609136627837985E+18</v>
       </c>
       <c r="C104" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D104" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="E104" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F104" t="s">
-        <v>81</v>
+        <v>118</v>
       </c>
       <c r="G104" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="H104" t="s">
-        <v>226</v>
+        <v>169</v>
       </c>
       <c r="I104">
-        <v>7835</v>
+        <v>75</v>
       </c>
       <c r="J104">
-        <v>92082</v>
+        <v>617</v>
       </c>
       <c r="K104">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="L104">
         <v>12</v>
@@ -5362,34 +5180,34 @@
         <v>103</v>
       </c>
       <c r="B105">
-        <v>1.605015914436596E+18</v>
+        <v>1.609135464489062E+18</v>
       </c>
       <c r="C105" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D105" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="E105" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F105" t="s">
-        <v>82</v>
+        <v>119</v>
       </c>
       <c r="G105" t="s">
-        <v>174</v>
+        <v>166</v>
       </c>
       <c r="H105" t="s">
-        <v>226</v>
+        <v>167</v>
       </c>
       <c r="I105">
-        <v>4233</v>
+        <v>24</v>
       </c>
       <c r="J105">
-        <v>110353</v>
+        <v>148</v>
       </c>
       <c r="K105">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="L105">
         <v>12</v>
@@ -5403,34 +5221,34 @@
         <v>104</v>
       </c>
       <c r="B106">
-        <v>1.605012813625168E+18</v>
+        <v>1.609135287124505E+18</v>
       </c>
       <c r="C106" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D106" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="E106" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F106" t="s">
+        <v>120</v>
+      </c>
+      <c r="G106" t="s">
+        <v>166</v>
+      </c>
+      <c r="H106" t="s">
+        <v>169</v>
+      </c>
+      <c r="I106">
         <v>83</v>
       </c>
-      <c r="G106" t="s">
-        <v>175</v>
-      </c>
-      <c r="H106" t="s">
-        <v>226</v>
-      </c>
-      <c r="I106">
-        <v>7493</v>
-      </c>
       <c r="J106">
-        <v>67070</v>
+        <v>525</v>
       </c>
       <c r="K106">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="L106">
         <v>12</v>
@@ -5444,34 +5262,34 @@
         <v>105</v>
       </c>
       <c r="B107">
-        <v>1.605009088043454E+18</v>
+        <v>1.609056955481612E+18</v>
       </c>
       <c r="C107" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D107" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="E107" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F107" t="s">
-        <v>84</v>
+        <v>121</v>
       </c>
       <c r="G107" t="s">
-        <v>176</v>
+        <v>166</v>
       </c>
       <c r="H107" t="s">
-        <v>226</v>
+        <v>170</v>
       </c>
       <c r="I107">
-        <v>1592</v>
+        <v>117</v>
       </c>
       <c r="J107">
-        <v>25300</v>
+        <v>435</v>
       </c>
       <c r="K107">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="L107">
         <v>12</v>
@@ -5485,34 +5303,34 @@
         <v>106</v>
       </c>
       <c r="B108">
-        <v>1.60500683087455E+18</v>
+        <v>1.609256083285242E+18</v>
       </c>
       <c r="C108" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="D108" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="E108" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F108" t="s">
-        <v>85</v>
+        <v>126</v>
       </c>
       <c r="G108" t="s">
-        <v>177</v>
+        <v>166</v>
       </c>
       <c r="H108" t="s">
-        <v>226</v>
+        <v>168</v>
       </c>
       <c r="I108">
-        <v>484</v>
+        <v>86</v>
       </c>
       <c r="J108">
-        <v>13449</v>
+        <v>0</v>
       </c>
       <c r="K108">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="L108">
         <v>12</v>
@@ -5526,34 +5344,34 @@
         <v>107</v>
       </c>
       <c r="B109">
-        <v>1.605004914924655E+18</v>
+        <v>1.609255801260237E+18</v>
       </c>
       <c r="C109" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="D109" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="E109" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F109" t="s">
-        <v>86</v>
+        <v>127</v>
       </c>
       <c r="G109" t="s">
-        <v>178</v>
+        <v>166</v>
       </c>
       <c r="H109" t="s">
-        <v>228</v>
+        <v>168</v>
       </c>
       <c r="I109">
-        <v>3895</v>
+        <v>23</v>
       </c>
       <c r="J109">
         <v>0</v>
       </c>
       <c r="K109">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="L109">
         <v>12</v>
@@ -5567,34 +5385,34 @@
         <v>108</v>
       </c>
       <c r="B110">
-        <v>1.604999492557623E+18</v>
+        <v>1.609320657841541E+18</v>
       </c>
       <c r="C110" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="D110" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="E110" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="F110" t="s">
-        <v>87</v>
+        <v>128</v>
       </c>
       <c r="G110" t="s">
-        <v>179</v>
+        <v>166</v>
       </c>
       <c r="H110" t="s">
-        <v>228</v>
+        <v>167</v>
       </c>
       <c r="I110">
-        <v>2062</v>
+        <v>0</v>
       </c>
       <c r="J110">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K110">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="L110">
         <v>12</v>
@@ -5608,34 +5426,34 @@
         <v>109</v>
       </c>
       <c r="B111">
-        <v>1.604999479597404E+18</v>
+        <v>1.60932043497291E+18</v>
       </c>
       <c r="C111" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="D111" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="E111" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="F111" t="s">
-        <v>88</v>
+        <v>129</v>
       </c>
       <c r="G111" t="s">
-        <v>180</v>
+        <v>166</v>
       </c>
       <c r="H111" t="s">
-        <v>228</v>
+        <v>167</v>
       </c>
       <c r="I111">
-        <v>2793</v>
+        <v>0</v>
       </c>
       <c r="J111">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K111">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="L111">
         <v>12</v>
@@ -5649,34 +5467,34 @@
         <v>110</v>
       </c>
       <c r="B112">
-        <v>1.604999237099717E+18</v>
+        <v>1.609319979446321E+18</v>
       </c>
       <c r="C112" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="D112" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="E112" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="F112" t="s">
-        <v>89</v>
+        <v>130</v>
       </c>
       <c r="G112" t="s">
-        <v>181</v>
+        <v>166</v>
       </c>
       <c r="H112" t="s">
-        <v>227</v>
+        <v>167</v>
       </c>
       <c r="I112">
-        <v>3384</v>
+        <v>0</v>
       </c>
       <c r="J112">
-        <v>37860</v>
+        <v>2</v>
       </c>
       <c r="K112">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="L112">
         <v>12</v>
@@ -5690,34 +5508,34 @@
         <v>111</v>
       </c>
       <c r="B113">
-        <v>1.604997465169711E+18</v>
+        <v>1.609311850918822E+18</v>
       </c>
       <c r="C113" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="D113" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="E113" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="F113" t="s">
-        <v>90</v>
+        <v>131</v>
       </c>
       <c r="G113" t="s">
-        <v>182</v>
+        <v>166</v>
       </c>
       <c r="H113" t="s">
-        <v>226</v>
+        <v>167</v>
       </c>
       <c r="I113">
-        <v>2156</v>
+        <v>1</v>
       </c>
       <c r="J113">
-        <v>64841</v>
+        <v>17</v>
       </c>
       <c r="K113">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="L113">
         <v>12</v>
@@ -5731,34 +5549,34 @@
         <v>112</v>
       </c>
       <c r="B114">
-        <v>1.604985324505031E+18</v>
+        <v>1.609311849295626E+18</v>
       </c>
       <c r="C114" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="D114" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="E114" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="F114" t="s">
-        <v>91</v>
+        <v>132</v>
       </c>
       <c r="G114" t="s">
-        <v>183</v>
+        <v>166</v>
       </c>
       <c r="H114" t="s">
-        <v>226</v>
+        <v>167</v>
       </c>
       <c r="I114">
-        <v>1865</v>
+        <v>1</v>
       </c>
       <c r="J114">
-        <v>24129</v>
+        <v>7</v>
       </c>
       <c r="K114">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="L114">
         <v>12</v>
@@ -5772,34 +5590,34 @@
         <v>113</v>
       </c>
       <c r="B115">
-        <v>1.604981780548768E+18</v>
+        <v>1.609311847605305E+18</v>
       </c>
       <c r="C115" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="D115" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="E115" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="F115" t="s">
-        <v>92</v>
+        <v>133</v>
       </c>
       <c r="G115" t="s">
-        <v>184</v>
+        <v>166</v>
       </c>
       <c r="H115" t="s">
-        <v>226</v>
+        <v>167</v>
       </c>
       <c r="I115">
-        <v>1986</v>
+        <v>1</v>
       </c>
       <c r="J115">
-        <v>27945</v>
+        <v>11</v>
       </c>
       <c r="K115">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="L115">
         <v>12</v>
@@ -5813,34 +5631,34 @@
         <v>114</v>
       </c>
       <c r="B116">
-        <v>1.604941518774608E+18</v>
+        <v>1.609311845667553E+18</v>
       </c>
       <c r="C116" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="D116" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="E116" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="F116" t="s">
-        <v>93</v>
+        <v>134</v>
       </c>
       <c r="G116" t="s">
-        <v>185</v>
+        <v>166</v>
       </c>
       <c r="H116" t="s">
-        <v>228</v>
+        <v>167</v>
       </c>
       <c r="I116">
-        <v>5142</v>
+        <v>0</v>
       </c>
       <c r="J116">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="K116">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="L116">
         <v>12</v>
@@ -5854,34 +5672,34 @@
         <v>115</v>
       </c>
       <c r="B117">
-        <v>1.604939861966086E+18</v>
+        <v>1.609311843624882E+18</v>
       </c>
       <c r="C117" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="D117" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="E117" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="F117" t="s">
-        <v>94</v>
+        <v>135</v>
       </c>
       <c r="G117" t="s">
-        <v>186</v>
+        <v>166</v>
       </c>
       <c r="H117" t="s">
-        <v>228</v>
+        <v>170</v>
       </c>
       <c r="I117">
-        <v>51178</v>
+        <v>1</v>
       </c>
       <c r="J117">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="K117">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="L117">
         <v>12</v>
@@ -5895,34 +5713,34 @@
         <v>116</v>
       </c>
       <c r="B118">
-        <v>1.60498688122096E+18</v>
+        <v>1.609311841443893E+18</v>
       </c>
       <c r="C118" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D118" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E118" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="F118" t="s">
-        <v>128</v>
+        <v>136</v>
       </c>
       <c r="G118" t="s">
-        <v>220</v>
+        <v>166</v>
       </c>
       <c r="H118" t="s">
-        <v>227</v>
+        <v>170</v>
       </c>
       <c r="I118">
-        <v>56</v>
+        <v>1</v>
       </c>
       <c r="J118">
-        <v>260</v>
+        <v>7</v>
       </c>
       <c r="K118">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="L118">
         <v>12</v>
@@ -5936,34 +5754,34 @@
         <v>117</v>
       </c>
       <c r="B119">
-        <v>1.604984170878583E+18</v>
+        <v>1.609311839615066E+18</v>
       </c>
       <c r="C119" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D119" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E119" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="F119" t="s">
-        <v>129</v>
+        <v>137</v>
       </c>
       <c r="G119" t="s">
-        <v>221</v>
+        <v>166</v>
       </c>
       <c r="H119" t="s">
-        <v>228</v>
+        <v>167</v>
       </c>
       <c r="I119">
-        <v>73</v>
+        <v>1</v>
       </c>
       <c r="J119">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="K119">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="L119">
         <v>12</v>
@@ -5977,34 +5795,34 @@
         <v>118</v>
       </c>
       <c r="B120">
-        <v>1.605133273679639E+18</v>
+        <v>1.609311837933142E+18</v>
       </c>
       <c r="C120" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D120" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="E120" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="F120" t="s">
-        <v>126</v>
+        <v>138</v>
       </c>
       <c r="G120" t="s">
-        <v>218</v>
+        <v>166</v>
       </c>
       <c r="H120" t="s">
-        <v>229</v>
+        <v>167</v>
       </c>
       <c r="I120">
-        <v>33</v>
+        <v>1</v>
       </c>
       <c r="J120">
-        <v>127</v>
+        <v>6</v>
       </c>
       <c r="K120">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="L120">
         <v>12</v>
@@ -6018,34 +5836,34 @@
         <v>119</v>
       </c>
       <c r="B121">
-        <v>1.605006000654012E+18</v>
+        <v>1.609311836179948E+18</v>
       </c>
       <c r="C121" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D121" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="E121" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="F121" t="s">
-        <v>127</v>
+        <v>139</v>
       </c>
       <c r="G121" t="s">
-        <v>219</v>
+        <v>166</v>
       </c>
       <c r="H121" t="s">
-        <v>229</v>
+        <v>167</v>
       </c>
       <c r="I121">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="J121">
-        <v>132</v>
+        <v>5</v>
       </c>
       <c r="K121">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="L121">
         <v>12</v>
@@ -6059,34 +5877,34 @@
         <v>120</v>
       </c>
       <c r="B122">
-        <v>1.605251410399875E+18</v>
+        <v>1.609311834498023E+18</v>
       </c>
       <c r="C122" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D122" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E122" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F122" t="s">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="G122" t="s">
-        <v>222</v>
+        <v>166</v>
       </c>
       <c r="H122" t="s">
-        <v>226</v>
+        <v>167</v>
       </c>
       <c r="I122">
         <v>2</v>
       </c>
       <c r="J122">
-        <v>41</v>
+        <v>5</v>
       </c>
       <c r="K122">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="L122">
         <v>12</v>
@@ -6100,34 +5918,34 @@
         <v>121</v>
       </c>
       <c r="B123">
-        <v>1.605251409313616E+18</v>
+        <v>1.609310448184173E+18</v>
       </c>
       <c r="C123" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D123" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E123" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F123" t="s">
-        <v>131</v>
+        <v>141</v>
       </c>
       <c r="G123" t="s">
-        <v>223</v>
+        <v>166</v>
       </c>
       <c r="H123" t="s">
-        <v>226</v>
+        <v>167</v>
       </c>
       <c r="I123">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J123">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="K123">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="L123">
         <v>12</v>
@@ -6141,34 +5959,34 @@
         <v>122</v>
       </c>
       <c r="B124">
-        <v>1.605251408155906E+18</v>
+        <v>1.609310446523224E+18</v>
       </c>
       <c r="C124" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D124" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E124" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F124" t="s">
-        <v>132</v>
+        <v>142</v>
       </c>
       <c r="G124" t="s">
-        <v>223</v>
+        <v>166</v>
       </c>
       <c r="H124" t="s">
-        <v>227</v>
+        <v>167</v>
       </c>
       <c r="I124">
-        <v>47</v>
+        <v>2</v>
       </c>
       <c r="J124">
-        <v>166</v>
+        <v>7</v>
       </c>
       <c r="K124">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="L124">
         <v>12</v>
@@ -6182,7 +6000,7 @@
         <v>123</v>
       </c>
       <c r="B125">
-        <v>1.605114101293875E+18</v>
+        <v>1.609310444832915E+18</v>
       </c>
       <c r="C125" t="s">
         <v>21</v>
@@ -6194,22 +6012,22 @@
         <v>42</v>
       </c>
       <c r="F125" t="s">
-        <v>133</v>
+        <v>143</v>
       </c>
       <c r="G125" t="s">
-        <v>224</v>
+        <v>166</v>
       </c>
       <c r="H125" t="s">
-        <v>226</v>
+        <v>167</v>
       </c>
       <c r="I125">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J125">
-        <v>83</v>
+        <v>5</v>
       </c>
       <c r="K125">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="L125">
         <v>12</v>
@@ -6223,7 +6041,7 @@
         <v>124</v>
       </c>
       <c r="B126">
-        <v>1.604994399053959E+18</v>
+        <v>1.609310443125752E+18</v>
       </c>
       <c r="C126" t="s">
         <v>21</v>
@@ -6235,27 +6053,888 @@
         <v>42</v>
       </c>
       <c r="F126" t="s">
+        <v>144</v>
+      </c>
+      <c r="G126" t="s">
+        <v>166</v>
+      </c>
+      <c r="H126" t="s">
+        <v>167</v>
+      </c>
+      <c r="I126">
+        <v>1</v>
+      </c>
+      <c r="J126">
+        <v>5</v>
+      </c>
+      <c r="K126">
+        <v>31</v>
+      </c>
+      <c r="L126">
+        <v>12</v>
+      </c>
+      <c r="M126">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="127" spans="1:13">
+      <c r="A127" s="1">
+        <v>125</v>
+      </c>
+      <c r="B127">
+        <v>1.609310441364402E+18</v>
+      </c>
+      <c r="C127" t="s">
+        <v>21</v>
+      </c>
+      <c r="D127" t="s">
+        <v>31</v>
+      </c>
+      <c r="E127" t="s">
+        <v>42</v>
+      </c>
+      <c r="F127" t="s">
+        <v>145</v>
+      </c>
+      <c r="G127" t="s">
+        <v>166</v>
+      </c>
+      <c r="H127" t="s">
+        <v>167</v>
+      </c>
+      <c r="I127">
+        <v>1</v>
+      </c>
+      <c r="J127">
+        <v>6</v>
+      </c>
+      <c r="K127">
+        <v>31</v>
+      </c>
+      <c r="L127">
+        <v>12</v>
+      </c>
+      <c r="M127">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="128" spans="1:13">
+      <c r="A128" s="1">
+        <v>126</v>
+      </c>
+      <c r="B128">
+        <v>1.609310439435039E+18</v>
+      </c>
+      <c r="C128" t="s">
+        <v>21</v>
+      </c>
+      <c r="D128" t="s">
+        <v>31</v>
+      </c>
+      <c r="E128" t="s">
+        <v>42</v>
+      </c>
+      <c r="F128" t="s">
+        <v>146</v>
+      </c>
+      <c r="G128" t="s">
+        <v>166</v>
+      </c>
+      <c r="H128" t="s">
+        <v>167</v>
+      </c>
+      <c r="I128">
+        <v>1</v>
+      </c>
+      <c r="J128">
+        <v>10</v>
+      </c>
+      <c r="K128">
+        <v>31</v>
+      </c>
+      <c r="L128">
+        <v>12</v>
+      </c>
+      <c r="M128">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="129" spans="1:13">
+      <c r="A129" s="1">
+        <v>127</v>
+      </c>
+      <c r="B129">
+        <v>1.609310437404729E+18</v>
+      </c>
+      <c r="C129" t="s">
+        <v>21</v>
+      </c>
+      <c r="D129" t="s">
+        <v>31</v>
+      </c>
+      <c r="E129" t="s">
+        <v>42</v>
+      </c>
+      <c r="F129" t="s">
+        <v>147</v>
+      </c>
+      <c r="G129" t="s">
+        <v>166</v>
+      </c>
+      <c r="H129" t="s">
+        <v>167</v>
+      </c>
+      <c r="I129">
+        <v>1</v>
+      </c>
+      <c r="J129">
+        <v>8</v>
+      </c>
+      <c r="K129">
+        <v>31</v>
+      </c>
+      <c r="L129">
+        <v>12</v>
+      </c>
+      <c r="M129">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="130" spans="1:13">
+      <c r="A130" s="1">
+        <v>128</v>
+      </c>
+      <c r="B130">
+        <v>1.60931043564739E+18</v>
+      </c>
+      <c r="C130" t="s">
+        <v>21</v>
+      </c>
+      <c r="D130" t="s">
+        <v>31</v>
+      </c>
+      <c r="E130" t="s">
+        <v>42</v>
+      </c>
+      <c r="F130" t="s">
+        <v>148</v>
+      </c>
+      <c r="G130" t="s">
+        <v>166</v>
+      </c>
+      <c r="H130" t="s">
+        <v>167</v>
+      </c>
+      <c r="I130">
+        <v>2</v>
+      </c>
+      <c r="J130">
+        <v>9</v>
+      </c>
+      <c r="K130">
+        <v>31</v>
+      </c>
+      <c r="L130">
+        <v>12</v>
+      </c>
+      <c r="M130">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="131" spans="1:13">
+      <c r="A131" s="1">
+        <v>129</v>
+      </c>
+      <c r="B131">
+        <v>1.609310433864815E+18</v>
+      </c>
+      <c r="C131" t="s">
+        <v>21</v>
+      </c>
+      <c r="D131" t="s">
+        <v>31</v>
+      </c>
+      <c r="E131" t="s">
+        <v>42</v>
+      </c>
+      <c r="F131" t="s">
+        <v>149</v>
+      </c>
+      <c r="G131" t="s">
+        <v>166</v>
+      </c>
+      <c r="H131" t="s">
+        <v>167</v>
+      </c>
+      <c r="I131">
+        <v>2</v>
+      </c>
+      <c r="J131">
+        <v>5</v>
+      </c>
+      <c r="K131">
+        <v>31</v>
+      </c>
+      <c r="L131">
+        <v>12</v>
+      </c>
+      <c r="M131">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="132" spans="1:13">
+      <c r="A132" s="1">
+        <v>130</v>
+      </c>
+      <c r="B132">
+        <v>1.609310432136925E+18</v>
+      </c>
+      <c r="C132" t="s">
+        <v>21</v>
+      </c>
+      <c r="D132" t="s">
+        <v>31</v>
+      </c>
+      <c r="E132" t="s">
+        <v>42</v>
+      </c>
+      <c r="F132" t="s">
+        <v>150</v>
+      </c>
+      <c r="G132" t="s">
+        <v>166</v>
+      </c>
+      <c r="H132" t="s">
+        <v>167</v>
+      </c>
+      <c r="I132">
+        <v>1</v>
+      </c>
+      <c r="J132">
+        <v>7</v>
+      </c>
+      <c r="K132">
+        <v>31</v>
+      </c>
+      <c r="L132">
+        <v>12</v>
+      </c>
+      <c r="M132">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="133" spans="1:13">
+      <c r="A133" s="1">
+        <v>131</v>
+      </c>
+      <c r="B133">
+        <v>1.609310430253679E+18</v>
+      </c>
+      <c r="C133" t="s">
+        <v>21</v>
+      </c>
+      <c r="D133" t="s">
+        <v>31</v>
+      </c>
+      <c r="E133" t="s">
+        <v>42</v>
+      </c>
+      <c r="F133" t="s">
+        <v>151</v>
+      </c>
+      <c r="G133" t="s">
+        <v>166</v>
+      </c>
+      <c r="H133" t="s">
+        <v>167</v>
+      </c>
+      <c r="I133">
+        <v>2</v>
+      </c>
+      <c r="J133">
+        <v>6</v>
+      </c>
+      <c r="K133">
+        <v>31</v>
+      </c>
+      <c r="L133">
+        <v>12</v>
+      </c>
+      <c r="M133">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="134" spans="1:13">
+      <c r="A134" s="1">
+        <v>132</v>
+      </c>
+      <c r="B134">
+        <v>1.609310428382781E+18</v>
+      </c>
+      <c r="C134" t="s">
+        <v>21</v>
+      </c>
+      <c r="D134" t="s">
+        <v>31</v>
+      </c>
+      <c r="E134" t="s">
+        <v>42</v>
+      </c>
+      <c r="F134" t="s">
+        <v>152</v>
+      </c>
+      <c r="G134" t="s">
+        <v>166</v>
+      </c>
+      <c r="H134" t="s">
+        <v>167</v>
+      </c>
+      <c r="I134">
+        <v>1</v>
+      </c>
+      <c r="J134">
+        <v>7</v>
+      </c>
+      <c r="K134">
+        <v>31</v>
+      </c>
+      <c r="L134">
+        <v>12</v>
+      </c>
+      <c r="M134">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="135" spans="1:13">
+      <c r="A135" s="1">
+        <v>133</v>
+      </c>
+      <c r="B135">
+        <v>1.609310426587603E+18</v>
+      </c>
+      <c r="C135" t="s">
+        <v>21</v>
+      </c>
+      <c r="D135" t="s">
+        <v>31</v>
+      </c>
+      <c r="E135" t="s">
+        <v>42</v>
+      </c>
+      <c r="F135" t="s">
+        <v>153</v>
+      </c>
+      <c r="G135" t="s">
+        <v>166</v>
+      </c>
+      <c r="H135" t="s">
+        <v>167</v>
+      </c>
+      <c r="I135">
+        <v>1</v>
+      </c>
+      <c r="J135">
+        <v>6</v>
+      </c>
+      <c r="K135">
+        <v>31</v>
+      </c>
+      <c r="L135">
+        <v>12</v>
+      </c>
+      <c r="M135">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="136" spans="1:13">
+      <c r="A136" s="1">
         <v>134</v>
       </c>
-      <c r="G126" t="s">
-        <v>225</v>
-      </c>
-      <c r="H126" t="s">
-        <v>228</v>
-      </c>
-      <c r="I126">
-        <v>108</v>
-      </c>
-      <c r="J126">
-        <v>0</v>
-      </c>
-      <c r="K126">
-        <v>20</v>
-      </c>
-      <c r="L126">
-        <v>12</v>
-      </c>
-      <c r="M126">
+      <c r="B136">
+        <v>1.609310424863736E+18</v>
+      </c>
+      <c r="C136" t="s">
+        <v>21</v>
+      </c>
+      <c r="D136" t="s">
+        <v>31</v>
+      </c>
+      <c r="E136" t="s">
+        <v>42</v>
+      </c>
+      <c r="F136" t="s">
+        <v>154</v>
+      </c>
+      <c r="G136" t="s">
+        <v>166</v>
+      </c>
+      <c r="H136" t="s">
+        <v>167</v>
+      </c>
+      <c r="I136">
+        <v>1</v>
+      </c>
+      <c r="J136">
+        <v>6</v>
+      </c>
+      <c r="K136">
+        <v>31</v>
+      </c>
+      <c r="L136">
+        <v>12</v>
+      </c>
+      <c r="M136">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="137" spans="1:13">
+      <c r="A137" s="1">
+        <v>135</v>
+      </c>
+      <c r="B137">
+        <v>1.609310423160873E+18</v>
+      </c>
+      <c r="C137" t="s">
+        <v>21</v>
+      </c>
+      <c r="D137" t="s">
+        <v>31</v>
+      </c>
+      <c r="E137" t="s">
+        <v>42</v>
+      </c>
+      <c r="F137" t="s">
+        <v>155</v>
+      </c>
+      <c r="G137" t="s">
+        <v>166</v>
+      </c>
+      <c r="H137" t="s">
+        <v>167</v>
+      </c>
+      <c r="I137">
+        <v>1</v>
+      </c>
+      <c r="J137">
+        <v>7</v>
+      </c>
+      <c r="K137">
+        <v>31</v>
+      </c>
+      <c r="L137">
+        <v>12</v>
+      </c>
+      <c r="M137">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="138" spans="1:13">
+      <c r="A138" s="1">
+        <v>136</v>
+      </c>
+      <c r="B138">
+        <v>1.609310421382562E+18</v>
+      </c>
+      <c r="C138" t="s">
+        <v>21</v>
+      </c>
+      <c r="D138" t="s">
+        <v>31</v>
+      </c>
+      <c r="E138" t="s">
+        <v>42</v>
+      </c>
+      <c r="F138" t="s">
+        <v>156</v>
+      </c>
+      <c r="G138" t="s">
+        <v>166</v>
+      </c>
+      <c r="H138" t="s">
+        <v>167</v>
+      </c>
+      <c r="I138">
+        <v>1</v>
+      </c>
+      <c r="J138">
+        <v>12</v>
+      </c>
+      <c r="K138">
+        <v>31</v>
+      </c>
+      <c r="L138">
+        <v>12</v>
+      </c>
+      <c r="M138">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="139" spans="1:13">
+      <c r="A139" s="1">
+        <v>137</v>
+      </c>
+      <c r="B139">
+        <v>1.60931041970065E+18</v>
+      </c>
+      <c r="C139" t="s">
+        <v>21</v>
+      </c>
+      <c r="D139" t="s">
+        <v>31</v>
+      </c>
+      <c r="E139" t="s">
+        <v>42</v>
+      </c>
+      <c r="F139" t="s">
+        <v>157</v>
+      </c>
+      <c r="G139" t="s">
+        <v>166</v>
+      </c>
+      <c r="H139" t="s">
+        <v>167</v>
+      </c>
+      <c r="I139">
+        <v>1</v>
+      </c>
+      <c r="J139">
+        <v>7</v>
+      </c>
+      <c r="K139">
+        <v>31</v>
+      </c>
+      <c r="L139">
+        <v>12</v>
+      </c>
+      <c r="M139">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="140" spans="1:13">
+      <c r="A140" s="1">
+        <v>138</v>
+      </c>
+      <c r="B140">
+        <v>1.609310417997947E+18</v>
+      </c>
+      <c r="C140" t="s">
+        <v>21</v>
+      </c>
+      <c r="D140" t="s">
+        <v>31</v>
+      </c>
+      <c r="E140" t="s">
+        <v>42</v>
+      </c>
+      <c r="F140" t="s">
+        <v>158</v>
+      </c>
+      <c r="G140" t="s">
+        <v>166</v>
+      </c>
+      <c r="H140" t="s">
+        <v>167</v>
+      </c>
+      <c r="I140">
+        <v>1</v>
+      </c>
+      <c r="J140">
+        <v>7</v>
+      </c>
+      <c r="K140">
+        <v>31</v>
+      </c>
+      <c r="L140">
+        <v>12</v>
+      </c>
+      <c r="M140">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="141" spans="1:13">
+      <c r="A141" s="1">
+        <v>139</v>
+      </c>
+      <c r="B141">
+        <v>1.609310415976288E+18</v>
+      </c>
+      <c r="C141" t="s">
+        <v>21</v>
+      </c>
+      <c r="D141" t="s">
+        <v>31</v>
+      </c>
+      <c r="E141" t="s">
+        <v>42</v>
+      </c>
+      <c r="F141" t="s">
+        <v>159</v>
+      </c>
+      <c r="G141" t="s">
+        <v>166</v>
+      </c>
+      <c r="H141" t="s">
+        <v>167</v>
+      </c>
+      <c r="I141">
+        <v>2</v>
+      </c>
+      <c r="J141">
+        <v>9</v>
+      </c>
+      <c r="K141">
+        <v>31</v>
+      </c>
+      <c r="L141">
+        <v>12</v>
+      </c>
+      <c r="M141">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="142" spans="1:13">
+      <c r="A142" s="1">
+        <v>140</v>
+      </c>
+      <c r="B142">
+        <v>1.609310413996413E+18</v>
+      </c>
+      <c r="C142" t="s">
+        <v>21</v>
+      </c>
+      <c r="D142" t="s">
+        <v>31</v>
+      </c>
+      <c r="E142" t="s">
+        <v>42</v>
+      </c>
+      <c r="F142" t="s">
+        <v>160</v>
+      </c>
+      <c r="G142" t="s">
+        <v>166</v>
+      </c>
+      <c r="H142" t="s">
+        <v>167</v>
+      </c>
+      <c r="I142">
+        <v>1</v>
+      </c>
+      <c r="J142">
+        <v>10</v>
+      </c>
+      <c r="K142">
+        <v>31</v>
+      </c>
+      <c r="L142">
+        <v>12</v>
+      </c>
+      <c r="M142">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="143" spans="1:13">
+      <c r="A143" s="1">
+        <v>141</v>
+      </c>
+      <c r="B143">
+        <v>1.609310412356612E+18</v>
+      </c>
+      <c r="C143" t="s">
+        <v>21</v>
+      </c>
+      <c r="D143" t="s">
+        <v>31</v>
+      </c>
+      <c r="E143" t="s">
+        <v>42</v>
+      </c>
+      <c r="F143" t="s">
+        <v>161</v>
+      </c>
+      <c r="G143" t="s">
+        <v>166</v>
+      </c>
+      <c r="H143" t="s">
+        <v>167</v>
+      </c>
+      <c r="I143">
+        <v>1</v>
+      </c>
+      <c r="J143">
+        <v>8</v>
+      </c>
+      <c r="K143">
+        <v>31</v>
+      </c>
+      <c r="L143">
+        <v>12</v>
+      </c>
+      <c r="M143">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="144" spans="1:13">
+      <c r="A144" s="1">
+        <v>142</v>
+      </c>
+      <c r="B144">
+        <v>1.609310410003325E+18</v>
+      </c>
+      <c r="C144" t="s">
+        <v>21</v>
+      </c>
+      <c r="D144" t="s">
+        <v>31</v>
+      </c>
+      <c r="E144" t="s">
+        <v>42</v>
+      </c>
+      <c r="F144" t="s">
+        <v>162</v>
+      </c>
+      <c r="G144" t="s">
+        <v>166</v>
+      </c>
+      <c r="H144" t="s">
+        <v>167</v>
+      </c>
+      <c r="I144">
+        <v>2</v>
+      </c>
+      <c r="J144">
+        <v>11</v>
+      </c>
+      <c r="K144">
+        <v>31</v>
+      </c>
+      <c r="L144">
+        <v>12</v>
+      </c>
+      <c r="M144">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="145" spans="1:13">
+      <c r="A145" s="1">
+        <v>143</v>
+      </c>
+      <c r="B145">
+        <v>1.609310408203977E+18</v>
+      </c>
+      <c r="C145" t="s">
+        <v>21</v>
+      </c>
+      <c r="D145" t="s">
+        <v>31</v>
+      </c>
+      <c r="E145" t="s">
+        <v>42</v>
+      </c>
+      <c r="F145" t="s">
+        <v>163</v>
+      </c>
+      <c r="G145" t="s">
+        <v>166</v>
+      </c>
+      <c r="H145" t="s">
+        <v>167</v>
+      </c>
+      <c r="I145">
+        <v>1</v>
+      </c>
+      <c r="J145">
+        <v>8</v>
+      </c>
+      <c r="K145">
+        <v>31</v>
+      </c>
+      <c r="L145">
+        <v>12</v>
+      </c>
+      <c r="M145">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="146" spans="1:13">
+      <c r="A146" s="1">
+        <v>144</v>
+      </c>
+      <c r="B146">
+        <v>1.609310406505374E+18</v>
+      </c>
+      <c r="C146" t="s">
+        <v>21</v>
+      </c>
+      <c r="D146" t="s">
+        <v>31</v>
+      </c>
+      <c r="E146" t="s">
+        <v>42</v>
+      </c>
+      <c r="F146" t="s">
+        <v>164</v>
+      </c>
+      <c r="G146" t="s">
+        <v>166</v>
+      </c>
+      <c r="H146" t="s">
+        <v>167</v>
+      </c>
+      <c r="I146">
+        <v>1</v>
+      </c>
+      <c r="J146">
+        <v>11</v>
+      </c>
+      <c r="K146">
+        <v>31</v>
+      </c>
+      <c r="L146">
+        <v>12</v>
+      </c>
+      <c r="M146">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="147" spans="1:13">
+      <c r="A147" s="1">
+        <v>145</v>
+      </c>
+      <c r="B147">
+        <v>1.609310404651409E+18</v>
+      </c>
+      <c r="C147" t="s">
+        <v>21</v>
+      </c>
+      <c r="D147" t="s">
+        <v>31</v>
+      </c>
+      <c r="E147" t="s">
+        <v>42</v>
+      </c>
+      <c r="F147" t="s">
+        <v>165</v>
+      </c>
+      <c r="G147" t="s">
+        <v>166</v>
+      </c>
+      <c r="H147" t="s">
+        <v>169</v>
+      </c>
+      <c r="I147">
+        <v>34</v>
+      </c>
+      <c r="J147">
+        <v>148</v>
+      </c>
+      <c r="K147">
+        <v>31</v>
+      </c>
+      <c r="L147">
+        <v>12</v>
+      </c>
+      <c r="M147">
         <v>2022</v>
       </c>
     </row>
